--- a/data/strategies/方正场内策略结果.xlsx
+++ b/data/strategies/方正场内策略结果.xlsx
@@ -18,26 +18,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="212">
+  <si>
+    <t>易方达中证生物科技主题ETF</t>
+  </si>
+  <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
   <si>
+    <t>国泰中证军工ETF</t>
+  </si>
+  <si>
+    <t>华夏中证5G通信主题ETF</t>
+  </si>
+  <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>富国中证细分机械设备产业ETF</t>
-  </si>
-  <si>
-    <t>华夏中证5G通信主题ETF</t>
-  </si>
-  <si>
-    <t>国泰中证军工ETF</t>
-  </si>
-  <si>
-    <t>易方达中证生物科技主题ETF</t>
-  </si>
-  <si>
     <t>”双周期“配置</t>
   </si>
   <si>
@@ -68,73 +68,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>6.63%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>24.15%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>8.25%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.24%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>21.97%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>28.77%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>10.04%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>22.46%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>25.97%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>22.56%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -143,127 +140,130 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159837.OF</t>
+  </si>
+  <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
     <t>512400.OF</t>
   </si>
   <si>
+    <t>512660.OF</t>
+  </si>
+  <si>
+    <t>515050.OF</t>
+  </si>
+  <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>159886.OF</t>
-  </si>
-  <si>
-    <t>515050.OF</t>
-  </si>
-  <si>
-    <t>512660.OF</t>
-  </si>
-  <si>
-    <t>159837.OF</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>8.98%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>-0.78%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
-  </si>
-  <si>
-    <t>22.09%</t>
-  </si>
-  <si>
-    <t>12.76%</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>-0.79%</t>
-  </si>
-  <si>
-    <t>-10.02%</t>
-  </si>
-  <si>
-    <t>11.25%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>21.94%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>25.37%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>27.95%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>26.18%</t>
-  </si>
-  <si>
-    <t>34.49%</t>
-  </si>
-  <si>
-    <t>33.95%</t>
+    <t>-5.14%</t>
+  </si>
+  <si>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>6.72%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>7.39%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>15.41%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>3.77%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>-10.93%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>31.97%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>34.61%</t>
+  </si>
+  <si>
+    <t>27.34%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>30.49%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
+  </si>
+  <si>
+    <t>28.59%</t>
+  </si>
+  <si>
+    <t>23.21%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>34.36%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>26.37%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -278,19 +278,25 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>300750.SZ</t>
   </si>
   <si>
-    <t>002460.SZ</t>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
   </si>
   <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>603799.SH</t>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>300124.SZ</t>
   </si>
   <si>
     <t>603259.SH</t>
@@ -299,340 +305,355 @@
     <t>300760.SZ</t>
   </si>
   <si>
-    <t>300124.SZ</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>300122.SZ</t>
   </si>
   <si>
     <t>002179.SZ</t>
   </si>
   <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
+    <t>300782.SZ</t>
   </si>
   <si>
     <t>600893.SH</t>
   </si>
   <si>
-    <t>002475.SZ</t>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
   </si>
   <si>
     <t>002241.SZ</t>
   </si>
   <si>
-    <t>300122.SZ</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
+    <t>000661.SZ</t>
+  </si>
+  <si>
+    <t>601989.SH</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
   </si>
   <si>
     <t>600031.SH</t>
   </si>
   <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
-    <t>000661.SZ</t>
+    <t>468.00%</t>
+  </si>
+  <si>
+    <t>220.86%</t>
+  </si>
+  <si>
+    <t>194.51%</t>
+  </si>
+  <si>
+    <t>182.67%</t>
+  </si>
+  <si>
+    <t>180.78%</t>
+  </si>
+  <si>
+    <t>178.30%</t>
+  </si>
+  <si>
+    <t>172.82%</t>
+  </si>
+  <si>
+    <t>160.30%</t>
+  </si>
+  <si>
+    <t>160.06%</t>
+  </si>
+  <si>
+    <t>144.98%</t>
+  </si>
+  <si>
+    <t>142.85%</t>
+  </si>
+  <si>
+    <t>131.31%</t>
+  </si>
+  <si>
+    <t>127.06%</t>
+  </si>
+  <si>
+    <t>121.91%</t>
+  </si>
+  <si>
+    <t>107.30%</t>
+  </si>
+  <si>
+    <t>106.95%</t>
+  </si>
+  <si>
+    <t>106.42%</t>
+  </si>
+  <si>
+    <t>105.75%</t>
+  </si>
+  <si>
+    <t>104.45%</t>
+  </si>
+  <si>
+    <t>99.12%</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>智飞生物</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>长春高新</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>消费性电子</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>代理产品-二类苗</t>
+  </si>
+  <si>
+    <t>电连接器</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>基因工程药品\生物类药品</t>
+  </si>
+  <si>
+    <t>海洋运输装备</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>挖掘机械</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>-18.67%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>20.25%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>-12.23%</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-23.86%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锂电池 </t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>7.11%</t>
   </si>
   <si>
     <t>4.81%</t>
   </si>
   <si>
-    <t>3.08%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.23%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>1.81%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.56%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>中航光电</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>歌尔股份</t>
-  </si>
-  <si>
-    <t>智飞生物</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>长春高新</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>变频器类</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>电连接器</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>消费性电子</t>
-  </si>
-  <si>
-    <t>智能声学整机</t>
-  </si>
-  <si>
-    <t>代理产品-二类苗</t>
-  </si>
-  <si>
-    <t>运营商网络</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>挖掘机械</t>
-  </si>
-  <si>
-    <t>海洋运输装备</t>
-  </si>
-  <si>
-    <t>基因工程药品\生物类药品</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-15.69%</t>
-  </si>
-  <si>
-    <t>16.65%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>-14.61%</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>-9.56%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锂电池 </t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>机械设备</t>
-  </si>
-  <si>
-    <t>32.10%</t>
-  </si>
-  <si>
-    <t>15.50%</t>
-  </si>
-  <si>
-    <t>11.84%</t>
-  </si>
-  <si>
-    <t>9.95%</t>
-  </si>
-  <si>
-    <t>7.64%</t>
-  </si>
-  <si>
-    <t>6.65%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
-    <t>4.59%</t>
-  </si>
-  <si>
-    <t>3.44%</t>
-  </si>
-  <si>
-    <t>3.30%</t>
+    <t>4.53%</t>
+  </si>
+  <si>
+    <t>4.01%</t>
+  </si>
+  <si>
+    <t>3.47%</t>
+  </si>
+  <si>
+    <t>3.03%</t>
+  </si>
+  <si>
+    <t>2.84%</t>
+  </si>
+  <si>
+    <t>2.34%</t>
+  </si>
+  <si>
+    <t>2.20%</t>
+  </si>
+  <si>
+    <t>1.93%</t>
+  </si>
+  <si>
+    <t>1.29%</t>
+  </si>
+  <si>
+    <t>1.19%</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,25 +1092,25 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.004127322376041</v>
+      </c>
+      <c r="C3">
+        <v>1.064836999224328</v>
+      </c>
+      <c r="D3">
         <v>1.056768131545464</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>1.066006857855362</v>
+      </c>
+      <c r="F3">
+        <v>1.013207705897198</v>
+      </c>
+      <c r="G3">
         <v>1.07818653347421</v>
       </c>
-      <c r="D3">
-        <v>1.064836999224328</v>
-      </c>
-      <c r="E3">
-        <v>1.013207705897198</v>
-      </c>
-      <c r="F3">
-        <v>1.066006857855362</v>
-      </c>
-      <c r="G3">
-        <v>1.004127322376041</v>
-      </c>
       <c r="H3">
-        <v>1.047443060347339</v>
+        <v>1.046783156913146</v>
       </c>
       <c r="I3">
         <v>1.018168368380631</v>
@@ -1103,25 +1124,25 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.013941672636526</v>
+      </c>
+      <c r="C4">
+        <v>1.079573026780003</v>
+      </c>
+      <c r="D4">
         <v>1.068219633943428</v>
       </c>
-      <c r="C4">
+      <c r="E4">
+        <v>1.075358478802993</v>
+      </c>
+      <c r="F4">
+        <v>1.050811811222344</v>
+      </c>
+      <c r="G4">
         <v>1.091441744308904</v>
       </c>
-      <c r="D4">
-        <v>1.079573026780003</v>
-      </c>
-      <c r="E4">
-        <v>1.050811811222344</v>
-      </c>
-      <c r="F4">
-        <v>1.075358478802993</v>
-      </c>
-      <c r="G4">
-        <v>1.013941672636526</v>
-      </c>
       <c r="H4">
-        <v>1.063553735513848</v>
+        <v>1.06289226872549</v>
       </c>
       <c r="I4">
         <v>1.027111201157197</v>
@@ -1135,25 +1156,25 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.037618572711903</v>
+      </c>
+      <c r="C5">
+        <v>1.086848968240705</v>
+      </c>
+      <c r="D5">
         <v>1.073407066653616</v>
       </c>
-      <c r="C5">
+      <c r="E5">
+        <v>1.09180174563591</v>
+      </c>
+      <c r="F5">
+        <v>1.030874064103643</v>
+      </c>
+      <c r="G5">
         <v>1.079195082124676</v>
       </c>
-      <c r="D5">
-        <v>1.086848968240705</v>
-      </c>
-      <c r="E5">
-        <v>1.030874064103643</v>
-      </c>
-      <c r="F5">
-        <v>1.09180174563591</v>
-      </c>
-      <c r="G5">
-        <v>1.037618572711903</v>
-      </c>
       <c r="H5">
-        <v>1.066712059500451</v>
+        <v>1.066430713422194</v>
       </c>
       <c r="I5">
         <v>1.025290909062353</v>
@@ -1167,25 +1188,25 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.040792114227864</v>
+      </c>
+      <c r="C6">
+        <v>1.132719877079329</v>
+      </c>
+      <c r="D6">
         <v>1.115102280512871</v>
       </c>
-      <c r="C6">
+      <c r="E6">
+        <v>1.118609725685786</v>
+      </c>
+      <c r="F6">
+        <v>1.028350298645579</v>
+      </c>
+      <c r="G6">
         <v>1.111756795696859</v>
       </c>
-      <c r="D6">
-        <v>1.132719877079329</v>
-      </c>
-      <c r="E6">
-        <v>1.028350298645579</v>
-      </c>
-      <c r="F6">
-        <v>1.118609725685786</v>
-      </c>
-      <c r="G6">
-        <v>1.040792114227864</v>
-      </c>
       <c r="H6">
-        <v>1.091311165701137</v>
+        <v>1.090777694852112</v>
       </c>
       <c r="I6">
         <v>1.026858339183711</v>
@@ -1199,25 +1220,25 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.043334797371669</v>
+      </c>
+      <c r="C7">
+        <v>1.118095518166899</v>
+      </c>
+      <c r="D7">
         <v>1.111187236958011</v>
       </c>
-      <c r="C7">
+      <c r="E7">
+        <v>1.088606608478803</v>
+      </c>
+      <c r="F7">
+        <v>1.045175401699335</v>
+      </c>
+      <c r="G7">
         <v>1.098261454231102</v>
       </c>
-      <c r="D7">
-        <v>1.118095518166899</v>
-      </c>
-      <c r="E7">
-        <v>1.045175401699335</v>
-      </c>
-      <c r="F7">
-        <v>1.088606608478803</v>
-      </c>
-      <c r="G7">
-        <v>1.043334797371669</v>
-      </c>
       <c r="H7">
-        <v>1.084178069718604</v>
+        <v>1.083697885962098</v>
       </c>
       <c r="I7">
         <v>1.029917812005761</v>
@@ -1231,25 +1252,25 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.03189027673108</v>
+      </c>
+      <c r="C8">
+        <v>1.089060901222685</v>
+      </c>
+      <c r="D8">
         <v>1.063717333855339</v>
       </c>
-      <c r="C8">
+      <c r="E8">
+        <v>1.052602867830424</v>
+      </c>
+      <c r="F8">
+        <v>1.061495751661479</v>
+      </c>
+      <c r="G8">
         <v>1.055998463163961</v>
       </c>
-      <c r="D8">
-        <v>1.089060901222685</v>
-      </c>
-      <c r="E8">
-        <v>1.061495751661479</v>
-      </c>
-      <c r="F8">
-        <v>1.052602867830424</v>
-      </c>
-      <c r="G8">
-        <v>1.03189027673108</v>
-      </c>
       <c r="H8">
-        <v>1.059100639279507</v>
+        <v>1.059112993088852</v>
       </c>
       <c r="I8">
         <v>1.013866573688848</v>
@@ -1263,25 +1284,25 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.048820421710136</v>
+      </c>
+      <c r="C9">
+        <v>1.132395423494981</v>
+      </c>
+      <c r="D9">
         <v>1.08808847998434</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <v>1.094996882793018</v>
+      </c>
+      <c r="F9">
+        <v>1.073020947253302</v>
+      </c>
+      <c r="G9">
         <v>1.083181250600327</v>
       </c>
-      <c r="D9">
-        <v>1.132395423494981</v>
-      </c>
-      <c r="E9">
-        <v>1.073020947253302</v>
-      </c>
-      <c r="F9">
-        <v>1.094996882793018</v>
-      </c>
-      <c r="G9">
-        <v>1.048820421710136</v>
-      </c>
       <c r="H9">
-        <v>1.086673420540087</v>
+        <v>1.086772881686291</v>
       </c>
       <c r="I9">
         <v>1.027660901099557</v>
@@ -1295,25 +1316,25 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.023917183822912</v>
+      </c>
+      <c r="C10">
+        <v>1.118211904329259</v>
+      </c>
+      <c r="D10">
         <v>1.05392972496819</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>1.079021197007481</v>
+      </c>
+      <c r="F10">
+        <v>1.089761924791789</v>
+      </c>
+      <c r="G10">
         <v>1.045961002785516</v>
       </c>
-      <c r="D10">
-        <v>1.118211904329259</v>
-      </c>
-      <c r="E10">
-        <v>1.089761924791789</v>
-      </c>
-      <c r="F10">
-        <v>1.079021197007481</v>
-      </c>
-      <c r="G10">
-        <v>1.023917183822912</v>
-      </c>
       <c r="H10">
-        <v>1.068415208528353</v>
+        <v>1.068837592132338</v>
       </c>
       <c r="I10">
         <v>1.020386015005238</v>
@@ -1327,25 +1348,25 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.005769754522801</v>
+      </c>
+      <c r="C11">
+        <v>1.085541383672937</v>
+      </c>
+      <c r="D11">
         <v>1.032984241949692</v>
       </c>
-      <c r="C11">
+      <c r="E11">
+        <v>1.017534289276808</v>
+      </c>
+      <c r="F11">
+        <v>1.086985782787919</v>
+      </c>
+      <c r="G11">
         <v>1.018345980213236</v>
       </c>
-      <c r="D11">
-        <v>1.085541383672937</v>
-      </c>
-      <c r="E11">
-        <v>1.086985782787919</v>
-      </c>
-      <c r="F11">
-        <v>1.017534289276808</v>
-      </c>
-      <c r="G11">
-        <v>1.005769754522801</v>
-      </c>
       <c r="H11">
-        <v>1.04110433213002</v>
+        <v>1.041504141290348</v>
       </c>
       <c r="I11">
         <v>1.011430617658561</v>
@@ -1359,25 +1380,25 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.008196251201437</v>
+      </c>
+      <c r="C12">
+        <v>1.087277505194144</v>
+      </c>
+      <c r="D12">
         <v>1.043750611725555</v>
       </c>
-      <c r="C12">
+      <c r="E12">
+        <v>1.009741271820449</v>
+      </c>
+      <c r="F12">
+        <v>1.062421132329435</v>
+      </c>
+      <c r="G12">
         <v>1.040678128902123</v>
       </c>
-      <c r="D12">
-        <v>1.087277505194144</v>
-      </c>
-      <c r="E12">
-        <v>1.062421132329435</v>
-      </c>
-      <c r="F12">
-        <v>1.009741271820449</v>
-      </c>
-      <c r="G12">
-        <v>1.008196251201437</v>
-      </c>
       <c r="H12">
-        <v>1.041896295635479</v>
+        <v>1.042006745793158</v>
       </c>
       <c r="I12">
         <v>1.007914108598721</v>
@@ -1391,25 +1412,25 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.010824356521311</v>
+      </c>
+      <c r="C13">
+        <v>1.102710583442528</v>
+      </c>
+      <c r="D13">
         <v>1.059508662033865</v>
       </c>
-      <c r="C13">
+      <c r="E13">
+        <v>1.031873441396509</v>
+      </c>
+      <c r="F13">
+        <v>1.100361739715656</v>
+      </c>
+      <c r="G13">
         <v>1.050859667659207</v>
       </c>
-      <c r="D13">
-        <v>1.102710583442528</v>
-      </c>
-      <c r="E13">
-        <v>1.100361739715656</v>
-      </c>
-      <c r="F13">
-        <v>1.031873441396509</v>
-      </c>
-      <c r="G13">
-        <v>1.010824356521311</v>
-      </c>
       <c r="H13">
-        <v>1.059408187231105</v>
+        <v>1.059439853333812</v>
       </c>
       <c r="I13">
         <v>1.023142367573358</v>
@@ -1423,25 +1444,25 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>0.9887250198916766</v>
+      </c>
+      <c r="C14">
+        <v>1.07041606147414</v>
+      </c>
+      <c r="D14">
         <v>1.022413624351571</v>
       </c>
-      <c r="C14">
+      <c r="E14">
+        <v>1.009273690773067</v>
+      </c>
+      <c r="F14">
+        <v>1.078573231261041</v>
+      </c>
+      <c r="G14">
         <v>1.02165978292191</v>
       </c>
-      <c r="D14">
-        <v>1.07041606147414</v>
-      </c>
-      <c r="E14">
-        <v>1.078573231261041</v>
-      </c>
-      <c r="F14">
-        <v>1.009273690773067</v>
-      </c>
-      <c r="G14">
-        <v>0.9887250198916766</v>
-      </c>
       <c r="H14">
-        <v>1.031889029000821</v>
+        <v>1.032039705741744</v>
       </c>
       <c r="I14">
         <v>1.017160061629216</v>
@@ -1455,25 +1476,25 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.027351928802997</v>
+      </c>
+      <c r="C15">
+        <v>1.11199543075996</v>
+      </c>
+      <c r="D15">
         <v>1.053146716257218</v>
       </c>
-      <c r="C15">
+      <c r="E15">
+        <v>1.02930174563591</v>
+      </c>
+      <c r="F15">
+        <v>1.080003365020611</v>
+      </c>
+      <c r="G15">
         <v>1.069685909134569</v>
       </c>
-      <c r="D15">
-        <v>1.11199543075996</v>
-      </c>
-      <c r="E15">
-        <v>1.080003365020611</v>
-      </c>
-      <c r="F15">
-        <v>1.02930174563591</v>
-      </c>
-      <c r="G15">
-        <v>1.027351928802997</v>
-      </c>
       <c r="H15">
-        <v>1.061758992658286</v>
+        <v>1.061924139999997</v>
       </c>
       <c r="I15">
         <v>1.026434284942462</v>
@@ -1487,25 +1508,25 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.055443812007164</v>
+      </c>
+      <c r="C16">
+        <v>1.141350292764891</v>
+      </c>
+      <c r="D16">
         <v>1.090535382206127</v>
       </c>
-      <c r="C16">
+      <c r="E16">
+        <v>1.039043017456359</v>
+      </c>
+      <c r="F16">
+        <v>1.079750988474804</v>
+      </c>
+      <c r="G16">
         <v>1.099029872250505</v>
       </c>
-      <c r="D16">
-        <v>1.141350292764891</v>
-      </c>
-      <c r="E16">
-        <v>1.079750988474804</v>
-      </c>
-      <c r="F16">
-        <v>1.039043017456359</v>
-      </c>
-      <c r="G16">
-        <v>1.055443812007164</v>
-      </c>
       <c r="H16">
-        <v>1.083908131029454</v>
+        <v>1.083980419532608</v>
       </c>
       <c r="I16">
         <v>1.04011081950838</v>
@@ -1519,25 +1540,25 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.110300216538111</v>
+      </c>
+      <c r="C17">
+        <v>1.169311773426793</v>
+      </c>
+      <c r="D17">
         <v>1.10061661935989</v>
       </c>
-      <c r="C17">
+      <c r="E17">
+        <v>1.041536783042394</v>
+      </c>
+      <c r="F17">
+        <v>1.056700597291158</v>
+      </c>
+      <c r="G17">
         <v>1.13019882816252</v>
       </c>
-      <c r="D17">
-        <v>1.169311773426793</v>
-      </c>
-      <c r="E17">
-        <v>1.056700597291158</v>
-      </c>
-      <c r="F17">
-        <v>1.041536783042394</v>
-      </c>
-      <c r="G17">
-        <v>1.110300216538111</v>
-      </c>
       <c r="H17">
-        <v>1.100676899129899</v>
+        <v>1.101164864554323</v>
       </c>
       <c r="I17">
         <v>1.042515364113389</v>
@@ -1551,25 +1572,25 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.118695454091382</v>
+      </c>
+      <c r="C18">
+        <v>1.170550022878105</v>
+      </c>
+      <c r="D18">
         <v>1.116178917490457</v>
       </c>
-      <c r="C18">
+      <c r="E18">
+        <v>1.042939526184539</v>
+      </c>
+      <c r="F18">
+        <v>1.036762850172457</v>
+      </c>
+      <c r="G18">
         <v>1.1354336759197</v>
       </c>
-      <c r="D18">
-        <v>1.170550022878105</v>
-      </c>
-      <c r="E18">
-        <v>1.036762850172457</v>
-      </c>
-      <c r="F18">
-        <v>1.042939526184539</v>
-      </c>
-      <c r="G18">
-        <v>1.118695454091382</v>
-      </c>
       <c r="H18">
-        <v>1.102602821175534</v>
+        <v>1.102979150011127</v>
       </c>
       <c r="I18">
         <v>1.043693292561303</v>
@@ -1583,25 +1604,25 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.076871564205738</v>
+      </c>
+      <c r="C19">
+        <v>1.143111330235736</v>
+      </c>
+      <c r="D19">
         <v>1.09601644318293</v>
       </c>
-      <c r="C19">
+      <c r="E19">
+        <v>0.9736596009975064</v>
+      </c>
+      <c r="F19">
+        <v>1.011861697652898</v>
+      </c>
+      <c r="G19">
         <v>1.107674574968783</v>
       </c>
-      <c r="D19">
-        <v>1.143111330235736</v>
-      </c>
-      <c r="E19">
-        <v>1.011861697652898</v>
-      </c>
-      <c r="F19">
-        <v>0.9736596009975064</v>
-      </c>
-      <c r="G19">
-        <v>1.076871564205738</v>
-      </c>
       <c r="H19">
-        <v>1.067363356966996</v>
+        <v>1.067526275729893</v>
       </c>
       <c r="I19">
         <v>1.026047924411546</v>
@@ -1615,25 +1636,25 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.066476603911961</v>
+      </c>
+      <c r="C20">
+        <v>1.173343402505447</v>
+      </c>
+      <c r="D20">
         <v>1.089262993050798</v>
       </c>
-      <c r="C20">
+      <c r="E20">
+        <v>0.971243765586035</v>
+      </c>
+      <c r="F20">
+        <v>1.015226718263649</v>
+      </c>
+      <c r="G20">
         <v>1.120785707424839</v>
       </c>
-      <c r="D20">
-        <v>1.173343402505447</v>
-      </c>
-      <c r="E20">
-        <v>1.015226718263649</v>
-      </c>
-      <c r="F20">
-        <v>0.971243765586035</v>
-      </c>
-      <c r="G20">
-        <v>1.066476603911961</v>
-      </c>
       <c r="H20">
-        <v>1.07177946236209</v>
+        <v>1.072077175421508</v>
       </c>
       <c r="I20">
         <v>1.02984870687015</v>
@@ -1647,25 +1668,25 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.033218034149328</v>
+      </c>
+      <c r="C21">
+        <v>1.114061617230356</v>
+      </c>
+      <c r="D21">
         <v>1.049133796613487</v>
       </c>
-      <c r="C21">
+      <c r="E21">
+        <v>0.9569046134663343</v>
+      </c>
+      <c r="F21">
+        <v>0.9733322116597963</v>
+      </c>
+      <c r="G21">
         <v>1.073191816348093</v>
       </c>
-      <c r="D21">
-        <v>1.114061617230356</v>
-      </c>
-      <c r="E21">
-        <v>0.9733322116597963</v>
-      </c>
-      <c r="F21">
-        <v>0.9569046134663343</v>
-      </c>
-      <c r="G21">
-        <v>1.033218034149328</v>
-      </c>
       <c r="H21">
-        <v>1.03250035869566</v>
+        <v>1.032749899079842</v>
       </c>
       <c r="I21">
         <v>1.007424090364388</v>
@@ -1679,25 +1700,25 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.023794932397892</v>
+      </c>
+      <c r="C22">
+        <v>1.097880501839255</v>
+      </c>
+      <c r="D22">
         <v>1.036312028971322</v>
       </c>
-      <c r="C22">
+      <c r="E22">
+        <v>0.9264339152119702</v>
+      </c>
+      <c r="F22">
+        <v>0.9671910490451753</v>
+      </c>
+      <c r="G22">
         <v>1.052300451445586</v>
       </c>
-      <c r="D22">
-        <v>1.097880501839255</v>
-      </c>
-      <c r="E22">
-        <v>0.9671910490451753</v>
-      </c>
-      <c r="F22">
-        <v>0.9264339152119702</v>
-      </c>
-      <c r="G22">
-        <v>1.023794932397892</v>
-      </c>
       <c r="H22">
-        <v>1.016448435072533</v>
+        <v>1.016779064610735</v>
       </c>
       <c r="I22">
         <v>0.9967065120596316</v>
@@ -1711,25 +1732,25 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.047833503315797</v>
+      </c>
+      <c r="C23">
+        <v>1.101091952976316</v>
+      </c>
+      <c r="D23">
         <v>1.048155035724772</v>
       </c>
-      <c r="C23">
+      <c r="E23">
+        <v>0.9218360349127184</v>
+      </c>
+      <c r="F23">
+        <v>0.9708925717170016</v>
+      </c>
+      <c r="G23">
         <v>1.048554413600999</v>
       </c>
-      <c r="D23">
-        <v>1.101091952976316</v>
-      </c>
-      <c r="E23">
-        <v>0.9708925717170016</v>
-      </c>
-      <c r="F23">
-        <v>0.9218360349127184</v>
-      </c>
-      <c r="G23">
-        <v>1.047833503315797</v>
-      </c>
       <c r="H23">
-        <v>1.022032542519172</v>
+        <v>1.022554702588835</v>
       </c>
       <c r="I23">
         <v>1.004110184997589</v>
@@ -1743,25 +1764,25 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.065362086966162</v>
+      </c>
+      <c r="C24">
+        <v>1.137013328468826</v>
+      </c>
+      <c r="D24">
         <v>1.078790251541548</v>
       </c>
-      <c r="C24">
+      <c r="E24">
+        <v>0.9368765586034913</v>
+      </c>
+      <c r="F24">
+        <v>0.9812400100950619</v>
+      </c>
+      <c r="G24">
         <v>1.10436077226011</v>
       </c>
-      <c r="D24">
-        <v>1.137013328468826</v>
-      </c>
-      <c r="E24">
-        <v>0.9812400100950619</v>
-      </c>
-      <c r="F24">
-        <v>0.9368765586034913</v>
-      </c>
-      <c r="G24">
-        <v>1.065362086966162</v>
-      </c>
       <c r="H24">
-        <v>1.049595557194634</v>
+        <v>1.049787801110968</v>
       </c>
       <c r="I24">
         <v>1.013770768841751</v>
@@ -1775,25 +1796,25 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.080511257949877</v>
+      </c>
+      <c r="C25">
+        <v>1.143360464903067</v>
+      </c>
+      <c r="D25">
         <v>1.084564940784966</v>
       </c>
-      <c r="C25">
+      <c r="E25">
+        <v>0.9064058603491273</v>
+      </c>
+      <c r="F25">
+        <v>0.9544039707243207</v>
+      </c>
+      <c r="G25">
         <v>1.104120641629046</v>
       </c>
-      <c r="D25">
-        <v>1.143360464903067</v>
-      </c>
-      <c r="E25">
-        <v>0.9544039707243207</v>
-      </c>
-      <c r="F25">
-        <v>0.9064058603491273</v>
-      </c>
-      <c r="G25">
-        <v>1.080511257949877</v>
-      </c>
       <c r="H25">
-        <v>1.044233695949339</v>
+        <v>1.044585557353729</v>
       </c>
       <c r="I25">
         <v>1.00506038061224</v>
@@ -1807,25 +1828,25 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.068067659695923</v>
+      </c>
+      <c r="C26">
+        <v>1.139734654198959</v>
+      </c>
+      <c r="D26">
         <v>1.040227072526182</v>
       </c>
-      <c r="C26">
+      <c r="E26">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="F26">
+        <v>0.941953394464541</v>
+      </c>
+      <c r="G26">
         <v>1.0789069253674</v>
       </c>
-      <c r="D26">
-        <v>1.139734654198959</v>
-      </c>
-      <c r="E26">
-        <v>0.941953394464541</v>
-      </c>
-      <c r="F26">
-        <v>0.8935473815461348</v>
-      </c>
-      <c r="G26">
-        <v>1.068067659695923</v>
-      </c>
       <c r="H26">
-        <v>1.025536281786905</v>
+        <v>1.026422964946918</v>
       </c>
       <c r="I26">
         <v>0.9939815709167896</v>
@@ -1839,25 +1860,25 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.100404047918281</v>
+      </c>
+      <c r="C27">
+        <v>1.122197425865832</v>
+      </c>
+      <c r="D27">
         <v>0.9885484976020358</v>
       </c>
-      <c r="C27">
+      <c r="E27">
+        <v>0.8753117206982545</v>
+      </c>
+      <c r="F27">
+        <v>0.923529906620678</v>
+      </c>
+      <c r="G27">
         <v>1.040774181154548</v>
       </c>
-      <c r="D27">
-        <v>1.122197425865832</v>
-      </c>
-      <c r="E27">
-        <v>0.923529906620678</v>
-      </c>
-      <c r="F27">
-        <v>0.8753117206982545</v>
-      </c>
-      <c r="G27">
-        <v>1.100404047918281</v>
-      </c>
       <c r="H27">
-        <v>1.006404167838296</v>
+        <v>1.008336955788571</v>
       </c>
       <c r="I27">
         <v>0.9800160512383169</v>
@@ -1871,25 +1892,25 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.113552470685185</v>
+      </c>
+      <c r="C28">
+        <v>1.160187383831868</v>
+      </c>
+      <c r="D28">
         <v>1.028873446217089</v>
       </c>
-      <c r="C28">
+      <c r="E28">
+        <v>0.8789744389027432</v>
+      </c>
+      <c r="F28">
+        <v>0.9258854210482038</v>
+      </c>
+      <c r="G28">
         <v>1.066420132552108</v>
       </c>
-      <c r="D28">
-        <v>1.160187383831868</v>
-      </c>
-      <c r="E28">
-        <v>0.9258854210482038</v>
-      </c>
-      <c r="F28">
-        <v>0.8789744389027432</v>
-      </c>
-      <c r="G28">
-        <v>1.113552470685185</v>
-      </c>
       <c r="H28">
-        <v>1.026824461305153</v>
+        <v>1.028608924062631</v>
       </c>
       <c r="I28">
         <v>0.9930973392952219</v>
@@ -1903,25 +1924,25 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.129049805523547</v>
+      </c>
+      <c r="C29">
+        <v>1.196258304680301</v>
+      </c>
+      <c r="D29">
         <v>1.080062640696878</v>
       </c>
-      <c r="C29">
+      <c r="E29">
+        <v>0.9283821695760599</v>
+      </c>
+      <c r="F29">
+        <v>0.9459072936821737</v>
+      </c>
+      <c r="G29">
         <v>1.100374603784459</v>
       </c>
-      <c r="D29">
-        <v>1.196258304680301</v>
-      </c>
-      <c r="E29">
-        <v>0.9459072936821737</v>
-      </c>
-      <c r="F29">
-        <v>0.9283821695760599</v>
-      </c>
-      <c r="G29">
-        <v>1.129049805523547</v>
-      </c>
       <c r="H29">
-        <v>1.061352837948343</v>
+        <v>1.062801546605568</v>
       </c>
       <c r="I29">
         <v>1.014256075362292</v>
@@ -1935,25 +1956,25 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.160285740475123</v>
+      </c>
+      <c r="C30">
+        <v>1.214785032647653</v>
+      </c>
+      <c r="D30">
         <v>1.108936086913967</v>
       </c>
-      <c r="C30">
+      <c r="E30">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="F30">
+        <v>0.9665180449230251</v>
+      </c>
+      <c r="G30">
         <v>1.116319277687062</v>
       </c>
-      <c r="D30">
-        <v>1.214785032647653</v>
-      </c>
-      <c r="E30">
-        <v>0.9665180449230251</v>
-      </c>
-      <c r="F30">
-        <v>0.9240960099750624</v>
-      </c>
-      <c r="G30">
-        <v>1.160285740475123</v>
-      </c>
       <c r="H30">
-        <v>1.079709125014494</v>
+        <v>1.081207279099712</v>
       </c>
       <c r="I30">
         <v>1.024824449396979</v>
@@ -1967,25 +1988,25 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.094033452179689</v>
+      </c>
+      <c r="C31">
+        <v>1.194476137689634</v>
+      </c>
+      <c r="D31">
         <v>1.181070764412254</v>
       </c>
-      <c r="C31">
+      <c r="E31">
+        <v>0.9183291770573566</v>
+      </c>
+      <c r="F31">
+        <v>0.9695465634727013</v>
+      </c>
+      <c r="G31">
         <v>1.101239074056287</v>
       </c>
-      <c r="D31">
-        <v>1.194476137689634</v>
-      </c>
-      <c r="E31">
-        <v>0.9695465634727013</v>
-      </c>
-      <c r="F31">
-        <v>0.9183291770573566</v>
-      </c>
-      <c r="G31">
-        <v>1.094033452179689</v>
-      </c>
       <c r="H31">
-        <v>1.075093082808854</v>
+        <v>1.075155080322861</v>
       </c>
       <c r="I31">
         <v>1.038860644782327</v>
@@ -1999,25 +2020,25 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.084557553048292</v>
+      </c>
+      <c r="C32">
+        <v>1.170724968350102</v>
+      </c>
+      <c r="D32">
         <v>1.197513947342664</v>
       </c>
-      <c r="C32">
+      <c r="E32">
+        <v>0.921524314214464</v>
+      </c>
+      <c r="F32">
+        <v>0.9783797425759232</v>
+      </c>
+      <c r="G32">
         <v>1.07674574968783</v>
       </c>
-      <c r="D32">
-        <v>1.170724968350102</v>
-      </c>
-      <c r="E32">
-        <v>0.9783797425759232</v>
-      </c>
-      <c r="F32">
-        <v>0.921524314214464</v>
-      </c>
-      <c r="G32">
-        <v>1.084557553048292</v>
-      </c>
       <c r="H32">
-        <v>1.070453041573293</v>
+        <v>1.070263269816972</v>
       </c>
       <c r="I32">
         <v>1.052829305603327</v>
@@ -2031,25 +2052,25 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.03088082715739</v>
+      </c>
+      <c r="C33">
+        <v>1.126369612185044</v>
+      </c>
+      <c r="D33">
         <v>1.254477831065871</v>
       </c>
-      <c r="C33">
+      <c r="E33">
+        <v>0.8913653366583542</v>
+      </c>
+      <c r="F33">
+        <v>0.9563388575755026</v>
+      </c>
+      <c r="G33">
         <v>1.056910959562002</v>
       </c>
-      <c r="D33">
-        <v>1.126369612185044</v>
-      </c>
-      <c r="E33">
-        <v>0.9563388575755026</v>
-      </c>
-      <c r="F33">
-        <v>0.8913653366583542</v>
-      </c>
-      <c r="G33">
-        <v>1.03088082715739</v>
-      </c>
       <c r="H33">
-        <v>1.052205877721283</v>
+        <v>1.050664494208429</v>
       </c>
       <c r="I33">
         <v>1.045538713796369</v>
@@ -2063,25 +2084,25 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.026414526264448</v>
+      </c>
+      <c r="C34">
+        <v>1.125951491017229</v>
+      </c>
+      <c r="D34">
         <v>1.237055887246746</v>
       </c>
-      <c r="C34">
+      <c r="E34">
+        <v>0.9158354114713217</v>
+      </c>
+      <c r="F34">
+        <v>0.9532262135105577</v>
+      </c>
+      <c r="G34">
         <v>1.033618288348862</v>
       </c>
-      <c r="D34">
-        <v>1.125951491017229</v>
-      </c>
-      <c r="E34">
-        <v>0.9532262135105577</v>
-      </c>
-      <c r="F34">
-        <v>0.9158354114713217</v>
-      </c>
-      <c r="G34">
-        <v>1.026414526264448</v>
-      </c>
       <c r="H34">
-        <v>1.048133648863241</v>
+        <v>1.046950567280102</v>
       </c>
       <c r="I34">
         <v>1.041481928221752</v>
@@ -2095,25 +2116,25 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>0.9897813044331062</v>
+      </c>
+      <c r="C35">
+        <v>1.080099750203639</v>
+      </c>
+      <c r="D35">
         <v>1.182343153567583</v>
       </c>
-      <c r="C35">
+      <c r="E35">
+        <v>0.9159912718204489</v>
+      </c>
+      <c r="F35">
+        <v>0.9547404727853958</v>
+      </c>
+      <c r="G35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="D35">
-        <v>1.080099750203639</v>
-      </c>
-      <c r="E35">
-        <v>0.9547404727853958</v>
-      </c>
-      <c r="F35">
-        <v>0.9159912718204489</v>
-      </c>
-      <c r="G35">
-        <v>0.9897813044331062</v>
-      </c>
       <c r="H35">
-        <v>1.017240009182779</v>
+        <v>1.016289723031622</v>
       </c>
       <c r="I35">
         <v>1.026555218929781</v>
@@ -2127,25 +2148,25 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>0.9886792836485474</v>
+      </c>
+      <c r="C36">
+        <v>1.071389372569089</v>
+      </c>
+      <c r="D36">
         <v>1.168934129392189</v>
       </c>
-      <c r="C36">
+      <c r="E36">
+        <v>0.9336814214463841</v>
+      </c>
+      <c r="F36">
+        <v>0.9491040632623875</v>
+      </c>
+      <c r="G36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="D36">
-        <v>1.071389372569089</v>
-      </c>
-      <c r="E36">
-        <v>0.9491040632623875</v>
-      </c>
-      <c r="F36">
-        <v>0.9336814214463841</v>
-      </c>
-      <c r="G36">
-        <v>0.9886792836485474</v>
-      </c>
       <c r="H36">
-        <v>1.012035055056187</v>
+        <v>1.0113210041089</v>
       </c>
       <c r="I36">
         <v>1.020737822968348</v>
@@ -2159,25 +2180,25 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>0.9786603215662223</v>
+      </c>
+      <c r="C37">
+        <v>1.047416243955229</v>
+      </c>
+      <c r="D37">
         <v>1.116766174023686</v>
       </c>
-      <c r="C37">
+      <c r="E37">
+        <v>0.9023534912718205</v>
+      </c>
+      <c r="F37">
+        <v>0.9411121393118532</v>
+      </c>
+      <c r="G37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="D37">
-        <v>1.047416243955229</v>
-      </c>
-      <c r="E37">
-        <v>0.9411121393118532</v>
-      </c>
-      <c r="F37">
-        <v>0.9023534912718205</v>
-      </c>
-      <c r="G37">
-        <v>0.9786603215662223</v>
-      </c>
       <c r="H37">
-        <v>0.9867815544907732</v>
+        <v>0.9864999585690397</v>
       </c>
       <c r="I37">
         <v>0.9995665223311676</v>
@@ -2191,25 +2212,25 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>0.9979384703377243</v>
+      </c>
+      <c r="C38">
+        <v>1.095415374640601</v>
+      </c>
+      <c r="D38">
         <v>1.158069883527454</v>
       </c>
-      <c r="C38">
+      <c r="E38">
+        <v>0.9193422693266834</v>
+      </c>
+      <c r="F38">
+        <v>0.9650879111634558</v>
+      </c>
+      <c r="G38">
         <v>0.980981654019787</v>
       </c>
-      <c r="D38">
-        <v>1.095415374640601</v>
-      </c>
-      <c r="E38">
-        <v>0.9650879111634558</v>
-      </c>
-      <c r="F38">
-        <v>0.9193422693266834</v>
-      </c>
-      <c r="G38">
-        <v>0.9979384703377243</v>
-      </c>
       <c r="H38">
-        <v>1.018928507262887</v>
+        <v>1.018471530337198</v>
       </c>
       <c r="I38">
         <v>1.019055741144727</v>
@@ -2223,25 +2244,25 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9720724273989513</v>
+      </c>
+      <c r="C39">
+        <v>1.096756975004088</v>
+      </c>
+      <c r="D39">
         <v>1.119213076245473</v>
       </c>
-      <c r="C39">
+      <c r="E39">
+        <v>0.9259663341645885</v>
+      </c>
+      <c r="F39">
+        <v>0.9701354420795827</v>
+      </c>
+      <c r="G39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="D39">
-        <v>1.096756975004088</v>
-      </c>
-      <c r="E39">
-        <v>0.9701354420795827</v>
-      </c>
-      <c r="F39">
-        <v>0.9259663341645885</v>
-      </c>
-      <c r="G39">
-        <v>0.9720724273989513</v>
-      </c>
       <c r="H39">
-        <v>1.010342288283809</v>
+        <v>1.010031036311497</v>
       </c>
       <c r="I39">
         <v>1.010400322909452</v>
@@ -2255,25 +2276,25 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>0.9909020181857088</v>
+      </c>
+      <c r="C40">
+        <v>1.092751255036991</v>
+      </c>
+      <c r="D40">
         <v>1.160908290104727</v>
       </c>
-      <c r="C40">
+      <c r="E40">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="F40">
+        <v>0.9747623454193657</v>
+      </c>
+      <c r="G40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="D40">
-        <v>1.092751255036991</v>
-      </c>
-      <c r="E40">
-        <v>0.9747623454193657</v>
-      </c>
-      <c r="F40">
-        <v>0.9240960099750624</v>
-      </c>
-      <c r="G40">
-        <v>0.9909020181857088</v>
-      </c>
       <c r="H40">
-        <v>1.022050760664013</v>
+        <v>1.021366098306161</v>
       </c>
       <c r="I40">
         <v>1.024758485403896</v>
@@ -2287,25 +2308,25 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9474461706612607</v>
+      </c>
+      <c r="C41">
+        <v>1.022998650553657</v>
+      </c>
+      <c r="D41">
         <v>1.115395908779485</v>
       </c>
-      <c r="C41">
+      <c r="E41">
+        <v>0.9117051122194514</v>
+      </c>
+      <c r="F41">
+        <v>0.9380836207621771</v>
+      </c>
+      <c r="G41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="D41">
-        <v>1.022998650553657</v>
-      </c>
-      <c r="E41">
-        <v>0.9380836207621771</v>
-      </c>
-      <c r="F41">
-        <v>0.9117051122194514</v>
-      </c>
-      <c r="G41">
-        <v>0.9474461706612607</v>
-      </c>
       <c r="H41">
-        <v>0.9780611379599178</v>
+        <v>0.9772758284097932</v>
       </c>
       <c r="I41">
         <v>1.005478152568434</v>
@@ -2319,25 +2340,25 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9503171966677352</v>
+      </c>
+      <c r="C42">
+        <v>1.024189476523347</v>
+      </c>
+      <c r="D42">
         <v>1.077713614563962</v>
       </c>
-      <c r="C42">
+      <c r="E42">
+        <v>0.892534289276808</v>
+      </c>
+      <c r="F42">
+        <v>0.9501976949608815</v>
+      </c>
+      <c r="G42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="D42">
-        <v>1.024189476523347</v>
-      </c>
-      <c r="E42">
-        <v>0.9501976949608815</v>
-      </c>
-      <c r="F42">
-        <v>0.892534289276808</v>
-      </c>
-      <c r="G42">
-        <v>0.9503171966677352</v>
-      </c>
       <c r="H42">
-        <v>0.9710645747657147</v>
+        <v>0.9706991079838176</v>
       </c>
       <c r="I42">
         <v>1.005715308829281</v>
@@ -2351,25 +2372,25 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.8954351259298817</v>
+      </c>
+      <c r="C43">
+        <v>0.9697246010415811</v>
+      </c>
+      <c r="D43">
         <v>1.047861407458158</v>
       </c>
-      <c r="C43">
+      <c r="E43">
+        <v>0.8323721945137158</v>
+      </c>
+      <c r="F43">
+        <v>0.923109279044334</v>
+      </c>
+      <c r="G43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="D43">
-        <v>0.9697246010415811</v>
-      </c>
-      <c r="E43">
-        <v>0.923109279044334</v>
-      </c>
-      <c r="F43">
-        <v>0.8323721945137158</v>
-      </c>
-      <c r="G43">
-        <v>0.8954351259298817</v>
-      </c>
       <c r="H43">
-        <v>0.9253257066203189</v>
+        <v>0.9246556391959149</v>
       </c>
       <c r="I43">
         <v>0.9826137761087841</v>
@@ -2383,25 +2404,25 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8674222483500562</v>
+      </c>
+      <c r="C44">
+        <v>0.9405647215503586</v>
+      </c>
+      <c r="D44">
         <v>1.030733091905647</v>
       </c>
-      <c r="C44">
+      <c r="E44">
+        <v>0.7886533665835412</v>
+      </c>
+      <c r="F44">
+        <v>0.8900479515437032</v>
+      </c>
+      <c r="G44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="D44">
-        <v>0.9405647215503586</v>
-      </c>
-      <c r="E44">
-        <v>0.8900479515437032</v>
-      </c>
-      <c r="F44">
-        <v>0.7886533665835412</v>
-      </c>
-      <c r="G44">
-        <v>0.8674222483500562</v>
-      </c>
       <c r="H44">
-        <v>0.8976254974801873</v>
+        <v>0.8967072284606922</v>
       </c>
       <c r="I44">
         <v>0.9593049279814547</v>
@@ -2415,25 +2436,25 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.8893784284877434</v>
+      </c>
+      <c r="C45">
+        <v>0.9575414961981824</v>
+      </c>
+      <c r="D45">
         <v>1.029852207105804</v>
       </c>
-      <c r="C45">
+      <c r="E45">
+        <v>0.7831203241895262</v>
+      </c>
+      <c r="F45">
+        <v>0.8817195255320939</v>
+      </c>
+      <c r="G45">
         <v>0.890500432235136</v>
       </c>
-      <c r="D45">
-        <v>0.9575414961981824</v>
-      </c>
-      <c r="E45">
-        <v>0.8817195255320939</v>
-      </c>
-      <c r="F45">
-        <v>0.7831203241895262</v>
-      </c>
-      <c r="G45">
-        <v>0.8893784284877434</v>
-      </c>
       <c r="H45">
-        <v>0.9049899110903834</v>
+        <v>0.9042555839438333</v>
       </c>
       <c r="I45">
         <v>0.952121135020441</v>
@@ -2447,25 +2468,25 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9114744689435453</v>
+      </c>
+      <c r="C46">
+        <v>0.9878844301670798</v>
+      </c>
+      <c r="D46">
         <v>1.093080160516786</v>
       </c>
-      <c r="C46">
+      <c r="E46">
+        <v>0.7966801745635911</v>
+      </c>
+      <c r="F46">
+        <v>0.8910574577269285</v>
+      </c>
+      <c r="G46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="D46">
-        <v>0.9878844301670798</v>
-      </c>
-      <c r="E46">
-        <v>0.8910574577269285</v>
-      </c>
-      <c r="F46">
-        <v>0.7966801745635911</v>
-      </c>
-      <c r="G46">
-        <v>0.9114744689435453</v>
-      </c>
       <c r="H46">
-        <v>0.9324956360328864</v>
+        <v>0.9313902359248281</v>
       </c>
       <c r="I46">
         <v>0.9759262836671583</v>
@@ -2479,25 +2500,25 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9166699420868117</v>
+      </c>
+      <c r="C47">
+        <v>1.003011366253994</v>
+      </c>
+      <c r="D47">
         <v>1.080160516785749</v>
       </c>
-      <c r="C47">
+      <c r="E47">
+        <v>0.7906795511221946</v>
+      </c>
+      <c r="F47">
+        <v>0.8754101118869352</v>
+      </c>
+      <c r="G47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="D47">
-        <v>1.003011366253994</v>
-      </c>
-      <c r="E47">
-        <v>0.8754101118869352</v>
-      </c>
-      <c r="F47">
-        <v>0.7906795511221946</v>
-      </c>
-      <c r="G47">
-        <v>0.9166699420868117</v>
-      </c>
       <c r="H47">
-        <v>0.9305402114970073</v>
+        <v>0.9297278504950668</v>
       </c>
       <c r="I47">
         <v>0.9772691220977807</v>
@@ -2511,25 +2532,25 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8757856668385999</v>
+      </c>
+      <c r="C48">
+        <v>0.957573314623156</v>
+      </c>
+      <c r="D48">
         <v>1.082411666829794</v>
       </c>
-      <c r="C48">
+      <c r="E48">
+        <v>0.7855361596009975</v>
+      </c>
+      <c r="F48">
+        <v>0.8388996382602842</v>
+      </c>
+      <c r="G48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="D48">
-        <v>0.957573314623156</v>
-      </c>
-      <c r="E48">
-        <v>0.8388996382602842</v>
-      </c>
-      <c r="F48">
-        <v>0.7855361596009975</v>
-      </c>
-      <c r="G48">
-        <v>0.8757856668385999</v>
-      </c>
       <c r="H48">
-        <v>0.9052049927281268</v>
+        <v>0.9037907313628721</v>
       </c>
       <c r="I48">
         <v>0.9696502808966706</v>
@@ -2543,25 +2564,25 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.8876667473911847</v>
+      </c>
+      <c r="C49">
+        <v>0.9641298964915476</v>
+      </c>
+      <c r="D49">
         <v>1.059704414211608</v>
       </c>
-      <c r="C49">
+      <c r="E49">
+        <v>0.7842113466334165</v>
+      </c>
+      <c r="F49">
+        <v>0.8369647514091023</v>
+      </c>
+      <c r="G49">
         <v>0.894870809720488</v>
       </c>
-      <c r="D49">
-        <v>0.9641298964915476</v>
-      </c>
-      <c r="E49">
-        <v>0.8369647514091023</v>
-      </c>
-      <c r="F49">
-        <v>0.7842113466334165</v>
-      </c>
-      <c r="G49">
-        <v>0.8876667473911847</v>
-      </c>
       <c r="H49">
-        <v>0.9041651877569217</v>
+        <v>0.9031374019564281</v>
       </c>
       <c r="I49">
         <v>0.9730065916875945</v>
@@ -2575,25 +2596,25 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.8905306243628587</v>
+      </c>
+      <c r="C50">
+        <v>0.9797492298432793</v>
+      </c>
+      <c r="D50">
         <v>1.065576979543897</v>
       </c>
-      <c r="C50">
+      <c r="E50">
+        <v>0.7973815461346635</v>
+      </c>
+      <c r="F50">
+        <v>0.849751829729957</v>
+      </c>
+      <c r="G50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="D50">
-        <v>0.9797492298432793</v>
-      </c>
-      <c r="E50">
-        <v>0.849751829729957</v>
-      </c>
-      <c r="F50">
-        <v>0.7973815461346635</v>
-      </c>
-      <c r="G50">
-        <v>0.8905306243628587</v>
-      </c>
       <c r="H50">
-        <v>0.9163708622293046</v>
+        <v>0.9152434600855227</v>
       </c>
       <c r="I50">
         <v>0.9777371523344186</v>
@@ -2607,25 +2628,25 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9136224902071773</v>
+      </c>
+      <c r="C51">
+        <v>0.9930284130093138</v>
+      </c>
+      <c r="D51">
         <v>1.065674855632769</v>
       </c>
-      <c r="C51">
+      <c r="E51">
+        <v>0.8066552369077307</v>
+      </c>
+      <c r="F51">
+        <v>0.8450408008749053</v>
+      </c>
+      <c r="G51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="D51">
-        <v>0.9930284130093138</v>
-      </c>
-      <c r="E51">
-        <v>0.8450408008749053</v>
-      </c>
-      <c r="F51">
-        <v>0.8066552369077307</v>
-      </c>
-      <c r="G51">
-        <v>0.9136224902071773</v>
-      </c>
       <c r="H51">
-        <v>0.9235458679926064</v>
+        <v>0.9227480595509525</v>
       </c>
       <c r="I51">
         <v>0.9853544229642648</v>
@@ -2639,25 +2660,25 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.8910089651093848</v>
+      </c>
+      <c r="C52">
+        <v>0.9594343262556518</v>
+      </c>
+      <c r="D52">
         <v>1.042869726925712</v>
       </c>
-      <c r="C52">
+      <c r="E52">
+        <v>0.8120324189526186</v>
+      </c>
+      <c r="F52">
+        <v>0.8251030537562042</v>
+      </c>
+      <c r="G52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="D52">
-        <v>0.9594343262556518</v>
-      </c>
-      <c r="E52">
-        <v>0.8251030537562042</v>
-      </c>
-      <c r="F52">
-        <v>0.8120324189526186</v>
-      </c>
-      <c r="G52">
-        <v>0.8910089651093848</v>
-      </c>
       <c r="H52">
-        <v>0.9029915685046007</v>
+        <v>0.9021661419167396</v>
       </c>
       <c r="I52">
         <v>0.9747907606433689</v>
@@ -2671,25 +2692,25 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.8978545321723633</v>
+      </c>
+      <c r="C53">
+        <v>0.9743116683378479</v>
+      </c>
+      <c r="D53">
         <v>1.046491142213957</v>
       </c>
-      <c r="C53">
+      <c r="E53">
+        <v>0.8185006234413966</v>
+      </c>
+      <c r="F53">
+        <v>0.8362076217716833</v>
+      </c>
+      <c r="G53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="D53">
-        <v>0.9743116683378479</v>
-      </c>
-      <c r="E53">
-        <v>0.8362076217716833</v>
-      </c>
-      <c r="F53">
-        <v>0.8185006234413966</v>
-      </c>
-      <c r="G53">
-        <v>0.8978545321723633</v>
-      </c>
       <c r="H53">
-        <v>0.9119807251932937</v>
+        <v>0.9112239324086643</v>
       </c>
       <c r="I53">
         <v>0.9903535512972134</v>
@@ -2703,25 +2724,25 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.900951045768282</v>
+      </c>
+      <c r="C54">
+        <v>0.9522220340594204</v>
+      </c>
+      <c r="D54">
         <v>1.005970441421161</v>
       </c>
-      <c r="C54">
+      <c r="E54">
+        <v>0.8129675810473815</v>
+      </c>
+      <c r="F54">
+        <v>0.8288045764280305</v>
+      </c>
+      <c r="G54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="D54">
-        <v>0.9522220340594204</v>
-      </c>
-      <c r="E54">
-        <v>0.8288045764280305</v>
-      </c>
-      <c r="F54">
-        <v>0.8129675810473815</v>
-      </c>
-      <c r="G54">
-        <v>0.900951045768282</v>
-      </c>
       <c r="H54">
-        <v>0.8942125427877122</v>
+        <v>0.8940028863363152</v>
       </c>
       <c r="I54">
         <v>0.9767649687220733</v>
@@ -2735,25 +2756,25 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9015302201347496</v>
+      </c>
+      <c r="C55">
+        <v>0.9211961771261079</v>
+      </c>
+      <c r="D55">
         <v>0.9642752275619065</v>
       </c>
-      <c r="C55">
+      <c r="E55">
+        <v>0.7979270573566085</v>
+      </c>
+      <c r="F55">
+        <v>0.8125683519811558</v>
+      </c>
+      <c r="G55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="D55">
-        <v>0.9211961771261079</v>
-      </c>
-      <c r="E55">
-        <v>0.8125683519811558</v>
-      </c>
-      <c r="F55">
-        <v>0.7979270573566085</v>
-      </c>
-      <c r="G55">
-        <v>0.9015302201347496</v>
-      </c>
       <c r="H55">
-        <v>0.8718902152176417</v>
+        <v>0.8720898455391629</v>
       </c>
       <c r="I55">
         <v>0.9647296811269164</v>
@@ -2767,25 +2788,25 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.913890681559825</v>
+      </c>
+      <c r="C56">
+        <v>0.9254323106583666</v>
+      </c>
+      <c r="D56">
         <v>0.9700499168053244</v>
       </c>
-      <c r="C56">
+      <c r="E56">
+        <v>0.8013559850374066</v>
+      </c>
+      <c r="F56">
+        <v>0.8184571380499704</v>
+      </c>
+      <c r="G56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="D56">
-        <v>0.9254323106583666</v>
-      </c>
-      <c r="E56">
-        <v>0.8184571380499704</v>
-      </c>
-      <c r="F56">
-        <v>0.8013559850374066</v>
-      </c>
-      <c r="G56">
-        <v>0.913890681559825</v>
-      </c>
       <c r="H56">
-        <v>0.8794709025004582</v>
+        <v>0.8796399563743641</v>
       </c>
       <c r="I56">
         <v>0.9670651205963146</v>
@@ -2799,25 +2820,25 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9428902724387289</v>
+      </c>
+      <c r="C57">
+        <v>0.966795915517327</v>
+      </c>
+      <c r="D57">
         <v>1.003132034843887</v>
       </c>
-      <c r="C57">
+      <c r="E57">
+        <v>0.8143703241895262</v>
+      </c>
+      <c r="F57">
+        <v>0.8378060065617902</v>
+      </c>
+      <c r="G57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="D57">
-        <v>0.966795915517327</v>
-      </c>
-      <c r="E57">
-        <v>0.8378060065617902</v>
-      </c>
-      <c r="F57">
-        <v>0.8143703241895262</v>
-      </c>
-      <c r="G57">
-        <v>0.9428902724387289</v>
-      </c>
       <c r="H57">
-        <v>0.9090884143180928</v>
+        <v>0.9092047674907474</v>
       </c>
       <c r="I57">
         <v>0.9818881721848689</v>
@@ -2831,25 +2852,25 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9463779612953893</v>
+      </c>
+      <c r="C58">
+        <v>0.9613277397957485</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
-      <c r="C58">
+      <c r="E58">
+        <v>0.8287874064837905</v>
+      </c>
+      <c r="F58">
+        <v>0.832842601160932</v>
+      </c>
+      <c r="G58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="D58">
-        <v>0.9613277397957485</v>
-      </c>
-      <c r="E58">
-        <v>0.832842601160932</v>
-      </c>
-      <c r="F58">
-        <v>0.8287874064837905</v>
-      </c>
-      <c r="G58">
-        <v>0.9463779612953893</v>
-      </c>
       <c r="H58">
-        <v>0.9079928873575774</v>
+        <v>0.9082297753165247</v>
       </c>
       <c r="I58">
         <v>0.9823829021329928</v>
@@ -2863,25 +2884,25 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9675903341709375</v>
+      </c>
+      <c r="C59">
+        <v>0.9855462042326004</v>
+      </c>
+      <c r="D59">
         <v>1.01380052853088</v>
       </c>
-      <c r="C59">
+      <c r="E59">
+        <v>0.8463996259351622</v>
+      </c>
+      <c r="F59">
+        <v>0.8363758728022208</v>
+      </c>
+      <c r="G59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="D59">
-        <v>0.9855462042326004</v>
-      </c>
-      <c r="E59">
-        <v>0.8363758728022208</v>
-      </c>
-      <c r="F59">
-        <v>0.8463996259351622</v>
-      </c>
-      <c r="G59">
-        <v>0.9675903341709375</v>
-      </c>
       <c r="H59">
-        <v>0.9233090705592507</v>
+        <v>0.9237383542003843</v>
       </c>
       <c r="I59">
         <v>0.9863752942857905</v>
@@ -2895,25 +2916,25 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9567762470623217</v>
+      </c>
+      <c r="C60">
+        <v>0.9740848425701178</v>
+      </c>
+      <c r="D60">
         <v>0.9898208867573652</v>
       </c>
-      <c r="C60">
+      <c r="E60">
+        <v>0.8123441396508729</v>
+      </c>
+      <c r="F60">
+        <v>0.8363758728022208</v>
+      </c>
+      <c r="G60">
         <v>0.883872826817789</v>
       </c>
-      <c r="D60">
-        <v>0.9740848425701178</v>
-      </c>
-      <c r="E60">
-        <v>0.8363758728022208</v>
-      </c>
-      <c r="F60">
-        <v>0.8123441396508729</v>
-      </c>
-      <c r="G60">
-        <v>0.9567762470623217</v>
-      </c>
       <c r="H60">
-        <v>0.9077481077659926</v>
+        <v>0.9083197815265653</v>
       </c>
       <c r="I60">
         <v>0.9822462624330348</v>
@@ -2927,25 +2948,25 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9742437416243307</v>
+      </c>
+      <c r="C61">
+        <v>0.987651620598789</v>
+      </c>
+      <c r="D61">
         <v>0.9985318586669276</v>
       </c>
-      <c r="C61">
+      <c r="E61">
+        <v>0.8189682044887781</v>
+      </c>
+      <c r="F61">
+        <v>0.8510137124589888</v>
+      </c>
+      <c r="G61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="D61">
-        <v>0.987651620598789</v>
-      </c>
-      <c r="E61">
-        <v>0.8510137124589888</v>
-      </c>
-      <c r="F61">
-        <v>0.8189682044887781</v>
-      </c>
-      <c r="G61">
-        <v>0.9742437416243307</v>
-      </c>
       <c r="H61">
-        <v>0.9206910282032431</v>
+        <v>0.9213164027450964</v>
       </c>
       <c r="I61">
         <v>0.9912911823417532</v>
@@ -2959,25 +2980,25 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9782067680469143</v>
+      </c>
+      <c r="C62">
+        <v>0.9912429189262187</v>
+      </c>
+      <c r="D62">
         <v>1.007047078398747</v>
       </c>
-      <c r="C62">
+      <c r="E62">
+        <v>0.8223192019950125</v>
+      </c>
+      <c r="F62">
+        <v>0.8673340624211322</v>
+      </c>
+      <c r="G62">
         <v>0.913937181826914</v>
       </c>
-      <c r="D62">
-        <v>0.9912429189262187</v>
-      </c>
-      <c r="E62">
-        <v>0.8673340624211322</v>
-      </c>
-      <c r="F62">
-        <v>0.8223192019950125</v>
-      </c>
-      <c r="G62">
-        <v>0.9782067680469143</v>
-      </c>
       <c r="H62">
-        <v>0.9289203291048083</v>
+        <v>0.9294049833722831</v>
       </c>
       <c r="I62">
         <v>0.9936391863812625</v>
@@ -2991,25 +3012,25 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9650400771521492</v>
+      </c>
+      <c r="C63">
+        <v>0.9972846580704282</v>
+      </c>
+      <c r="D63">
         <v>1.012528139375551</v>
       </c>
-      <c r="C63">
+      <c r="E63">
+        <v>0.8305018703241897</v>
+      </c>
+      <c r="F63">
+        <v>0.8669134348447883</v>
+      </c>
+      <c r="G63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="D63">
-        <v>0.9972846580704282</v>
-      </c>
-      <c r="E63">
-        <v>0.8669134348447883</v>
-      </c>
-      <c r="F63">
-        <v>0.8305018703241897</v>
-      </c>
-      <c r="G63">
-        <v>0.9650400771521492</v>
-      </c>
       <c r="H63">
-        <v>0.9307746282912674</v>
+        <v>0.931089518656615</v>
       </c>
       <c r="I63">
         <v>0.9962290583954103</v>
@@ -3023,25 +3044,25 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9663052512165702</v>
+      </c>
+      <c r="C64">
+        <v>0.9818758502164342</v>
+      </c>
+      <c r="D64">
         <v>1.024664774395615</v>
       </c>
-      <c r="C64">
+      <c r="E64">
+        <v>0.8252805486284289</v>
+      </c>
+      <c r="F64">
+        <v>0.8627912845966181</v>
+      </c>
+      <c r="G64">
         <v>0.911391797137643</v>
       </c>
-      <c r="D64">
-        <v>0.9818758502164342</v>
-      </c>
-      <c r="E64">
-        <v>0.8627912845966181</v>
-      </c>
-      <c r="F64">
-        <v>0.8252805486284289</v>
-      </c>
-      <c r="G64">
-        <v>0.9663052512165702</v>
-      </c>
       <c r="H64">
-        <v>0.9278108050381926</v>
+        <v>0.9279320503371901</v>
       </c>
       <c r="I64">
         <v>0.9970112028848254</v>
@@ -3055,25 +3076,25 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9880981169281189</v>
+      </c>
+      <c r="C65">
+        <v>0.9747396466377068</v>
+      </c>
+      <c r="D65">
         <v>1.037584418126652</v>
       </c>
-      <c r="C65">
+      <c r="E65">
+        <v>0.823176433915212</v>
+      </c>
+      <c r="F65">
+        <v>0.8637166652645747</v>
+      </c>
+      <c r="G65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="D65">
-        <v>0.9747396466377068</v>
-      </c>
-      <c r="E65">
-        <v>0.8637166652645747</v>
-      </c>
-      <c r="F65">
-        <v>0.823176433915212</v>
-      </c>
-      <c r="G65">
-        <v>0.9880981169281189</v>
-      </c>
       <c r="H65">
-        <v>0.9313272170389546</v>
+        <v>0.9315143389094448</v>
       </c>
       <c r="I65">
         <v>0.9983728881706143</v>
@@ -3087,25 +3108,25 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9688127312238475</v>
+      </c>
+      <c r="C66">
+        <v>0.9524671215919324</v>
+      </c>
+      <c r="D66">
         <v>1.035039639815993</v>
       </c>
-      <c r="C66">
+      <c r="E66">
+        <v>0.8278522443890275</v>
+      </c>
+      <c r="F66">
+        <v>0.8587532598637165</v>
+      </c>
+      <c r="G66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="D66">
-        <v>0.9524671215919324</v>
-      </c>
-      <c r="E66">
-        <v>0.8587532598637165</v>
-      </c>
-      <c r="F66">
-        <v>0.8278522443890275</v>
-      </c>
-      <c r="G66">
-        <v>0.9688127312238475</v>
-      </c>
       <c r="H66">
-        <v>0.9214858533050956</v>
+        <v>0.9214422905902179</v>
       </c>
       <c r="I66">
         <v>0.9949945893819959</v>
@@ -3119,25 +3140,25 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9436396026232445</v>
+      </c>
+      <c r="C67">
+        <v>0.9278043537561812</v>
+      </c>
+      <c r="D67">
         <v>0.9920720368014094</v>
       </c>
-      <c r="C67">
+      <c r="E67">
+        <v>0.8005766832917707</v>
+      </c>
+      <c r="F67">
+        <v>0.846302683603937</v>
+      </c>
+      <c r="G67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="D67">
-        <v>0.9278043537561812</v>
-      </c>
-      <c r="E67">
-        <v>0.846302683603937</v>
-      </c>
-      <c r="F67">
-        <v>0.8005766832917707</v>
-      </c>
-      <c r="G67">
-        <v>0.9436396026232445</v>
-      </c>
       <c r="H67">
-        <v>0.8943350692190961</v>
+        <v>0.894523947381354</v>
       </c>
       <c r="I67">
         <v>0.9779036328883906</v>
@@ -3151,25 +3172,25 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9583567843893441</v>
+      </c>
+      <c r="C68">
+        <v>0.9331816427476655</v>
+      </c>
+      <c r="D68">
         <v>0.9850249584026621</v>
       </c>
-      <c r="C68">
+      <c r="E68">
+        <v>0.7983167082294265</v>
+      </c>
+      <c r="F68">
+        <v>0.8494153276688819</v>
+      </c>
+      <c r="G68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="D68">
-        <v>0.9331816427476655</v>
-      </c>
-      <c r="E68">
-        <v>0.8494153276688819</v>
-      </c>
-      <c r="F68">
-        <v>0.7983167082294265</v>
-      </c>
-      <c r="G68">
-        <v>0.9583567843893441</v>
-      </c>
       <c r="H68">
-        <v>0.8973625657373167</v>
+        <v>0.8977719516973526</v>
       </c>
       <c r="I68">
         <v>0.9752902023052845</v>
@@ -3183,25 +3204,25 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9612804466295033</v>
+      </c>
+      <c r="C69">
+        <v>0.9573434845406216</v>
+      </c>
+      <c r="D69">
         <v>1.008515219731819</v>
       </c>
-      <c r="C69">
+      <c r="E69">
+        <v>0.810240024937656</v>
+      </c>
+      <c r="F69">
+        <v>0.8579120047110288</v>
+      </c>
+      <c r="G69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="D69">
-        <v>0.9573434845406216</v>
-      </c>
-      <c r="E69">
-        <v>0.8579120047110288</v>
-      </c>
-      <c r="F69">
-        <v>0.810240024937656</v>
-      </c>
-      <c r="G69">
-        <v>0.9612804466295033</v>
-      </c>
       <c r="H69">
-        <v>0.9161252583082335</v>
+        <v>0.9161609338387151</v>
       </c>
       <c r="I69">
         <v>0.9858805643376666</v>
@@ -3215,25 +3236,25 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9594471586930292</v>
+      </c>
+      <c r="C70">
+        <v>0.9588850704709834</v>
+      </c>
+      <c r="D70">
         <v>1.024273270040129</v>
       </c>
-      <c r="C70">
+      <c r="E70">
+        <v>0.8079800498753117</v>
+      </c>
+      <c r="F70">
+        <v>0.850508959367376</v>
+      </c>
+      <c r="G70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="D70">
-        <v>0.9588850704709834</v>
-      </c>
-      <c r="E70">
-        <v>0.850508959367376</v>
-      </c>
-      <c r="F70">
-        <v>0.8079800498753117</v>
-      </c>
-      <c r="G70">
-        <v>0.9594471586930292</v>
-      </c>
       <c r="H70">
-        <v>0.9168371500611397</v>
+        <v>0.9167286569513892</v>
       </c>
       <c r="I70">
         <v>0.9857627714928752</v>
@@ -3247,25 +3268,25 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9537038907581775</v>
+      </c>
+      <c r="C71">
+        <v>0.9539997194069288</v>
+      </c>
+      <c r="D71">
         <v>1.01840070470784</v>
       </c>
-      <c r="C71">
+      <c r="E71">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="F71">
+        <v>0.8528644737949019</v>
+      </c>
+      <c r="G71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="D71">
-        <v>0.9539997194069288</v>
-      </c>
-      <c r="E71">
-        <v>0.8528644737949019</v>
-      </c>
-      <c r="F71">
-        <v>0.8092269326683292</v>
-      </c>
-      <c r="G71">
-        <v>0.9537038907581775</v>
-      </c>
       <c r="H71">
-        <v>0.9137464161432112</v>
+        <v>0.9136494346320361</v>
       </c>
       <c r="I71">
         <v>0.9956777878817863</v>
@@ -3279,25 +3300,25 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9829057495130855</v>
+      </c>
+      <c r="C72">
+        <v>0.9988562623197857</v>
+      </c>
+      <c r="D72">
         <v>1.056670255456592</v>
       </c>
-      <c r="C72">
+      <c r="E72">
+        <v>0.820682668329177</v>
+      </c>
+      <c r="F72">
+        <v>0.883570286868007</v>
+      </c>
+      <c r="G72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="D72">
-        <v>0.9988562623197857</v>
-      </c>
-      <c r="E72">
-        <v>0.883570286868007</v>
-      </c>
-      <c r="F72">
-        <v>0.820682668329177</v>
-      </c>
-      <c r="G72">
-        <v>0.9829057495130855</v>
-      </c>
       <c r="H72">
-        <v>0.9494256124935667</v>
+        <v>0.9490890744814962</v>
       </c>
       <c r="I72">
         <v>1.009132871899496</v>
@@ -3311,25 +3332,25 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9894957678812706</v>
+      </c>
+      <c r="C73">
+        <v>0.9977594639547586</v>
+      </c>
+      <c r="D73">
         <v>1.046784770480572</v>
       </c>
-      <c r="C73">
+      <c r="E73">
+        <v>0.8162406483790525</v>
+      </c>
+      <c r="F73">
+        <v>0.8771767477075796</v>
+      </c>
+      <c r="G73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="D73">
-        <v>0.9977594639547586</v>
-      </c>
-      <c r="E73">
-        <v>0.8771767477075796</v>
-      </c>
-      <c r="F73">
-        <v>0.8162406483790525</v>
-      </c>
-      <c r="G73">
-        <v>0.9894957678812706</v>
-      </c>
       <c r="H73">
-        <v>0.9453858307103526</v>
+        <v>0.9452852044238976</v>
       </c>
       <c r="I73">
         <v>1.009648019274051</v>
@@ -3343,25 +3364,25 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.009417652077367</v>
+      </c>
+      <c r="C74">
+        <v>0.9944365800504087</v>
+      </c>
+      <c r="D74">
         <v>1.039346187726339</v>
       </c>
-      <c r="C74">
+      <c r="E74">
+        <v>0.8091490024937656</v>
+      </c>
+      <c r="F74">
+        <v>0.8742323546731722</v>
+      </c>
+      <c r="G74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="D74">
-        <v>0.9944365800504087</v>
-      </c>
-      <c r="E74">
-        <v>0.8742323546731722</v>
-      </c>
-      <c r="F74">
-        <v>0.8091490024937656</v>
-      </c>
-      <c r="G74">
-        <v>1.009417652077367</v>
-      </c>
       <c r="H74">
-        <v>0.944834216270236</v>
+        <v>0.9449878933908424</v>
       </c>
       <c r="I74">
         <v>1.008347586267553</v>
@@ -3375,25 +3396,25 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.006916193080956</v>
+      </c>
+      <c r="C75">
+        <v>0.9946952863157321</v>
+      </c>
+      <c r="D75">
         <v>1.043652735636684</v>
       </c>
-      <c r="C75">
+      <c r="E75">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="F75">
+        <v>0.8915622108185413</v>
+      </c>
+      <c r="G75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="D75">
-        <v>0.9946952863157321</v>
-      </c>
-      <c r="E75">
-        <v>0.8915622108185413</v>
-      </c>
-      <c r="F75">
-        <v>0.8092269326683292</v>
-      </c>
-      <c r="G75">
-        <v>1.006916193080956</v>
-      </c>
       <c r="H75">
-        <v>0.9485750347252169</v>
+        <v>0.9486392057763028</v>
       </c>
       <c r="I75">
         <v>1.012306996423809</v>
@@ -3407,25 +3428,25 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.032292160894361</v>
+      </c>
+      <c r="C76">
+        <v>1.011937222781352</v>
+      </c>
+      <c r="D76">
         <v>1.055006361945777</v>
       </c>
-      <c r="C76">
+      <c r="E76">
+        <v>0.8061097256857855</v>
+      </c>
+      <c r="F76">
+        <v>0.8863464288718769</v>
+      </c>
+      <c r="G76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="D76">
-        <v>1.011937222781352</v>
-      </c>
-      <c r="E76">
-        <v>0.8863464288718769</v>
-      </c>
-      <c r="F76">
-        <v>0.8061097256857855</v>
-      </c>
-      <c r="G76">
-        <v>1.032292160894361</v>
-      </c>
       <c r="H76">
-        <v>0.9583322468769183</v>
+        <v>0.9585664231128518</v>
       </c>
       <c r="I76">
         <v>1.015022514139068</v>
@@ -3439,25 +3460,25 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.036403617687023</v>
+      </c>
+      <c r="C77">
+        <v>0.9875027952852568</v>
+      </c>
+      <c r="D77">
         <v>1.06313007732211</v>
       </c>
-      <c r="C77">
+      <c r="E77">
+        <v>0.8057200748129677</v>
+      </c>
+      <c r="F77">
+        <v>0.8839067889290821</v>
+      </c>
+      <c r="G77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="D77">
-        <v>0.9875027952852568</v>
-      </c>
-      <c r="E77">
-        <v>0.8839067889290821</v>
-      </c>
-      <c r="F77">
-        <v>0.8057200748129677</v>
-      </c>
-      <c r="G77">
-        <v>1.036403617687023</v>
-      </c>
       <c r="H77">
-        <v>0.9537843889879867</v>
+        <v>0.9538632886426346</v>
       </c>
       <c r="I77">
         <v>1.011864095327393</v>
@@ -3471,25 +3492,25 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.062571238556948</v>
+      </c>
+      <c r="C78">
+        <v>0.9833019065865914</v>
+      </c>
+      <c r="D78">
         <v>1.065479103455026</v>
       </c>
-      <c r="C78">
+      <c r="E78">
+        <v>0.7945760598503742</v>
+      </c>
+      <c r="F78">
+        <v>0.8839909144443509</v>
+      </c>
+      <c r="G78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="D78">
-        <v>0.9833019065865914</v>
-      </c>
-      <c r="E78">
-        <v>0.8839909144443509</v>
-      </c>
-      <c r="F78">
-        <v>0.7945760598503742</v>
-      </c>
-      <c r="G78">
-        <v>1.062571238556948</v>
-      </c>
       <c r="H78">
-        <v>0.954650704243709</v>
+        <v>0.9549944583192245</v>
       </c>
       <c r="I78">
         <v>1.012434212696184</v>
@@ -3503,25 +3524,25 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.087231292063665</v>
+      </c>
+      <c r="C79">
+        <v>1.008222176478839</v>
+      </c>
+      <c r="D79">
         <v>1.065870607810512</v>
       </c>
-      <c r="C79">
+      <c r="E79">
+        <v>0.8017456359102244</v>
+      </c>
+      <c r="F79">
+        <v>0.8803735172877933</v>
+      </c>
+      <c r="G79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="D79">
-        <v>1.008222176478839</v>
-      </c>
-      <c r="E79">
-        <v>0.8803735172877933</v>
-      </c>
-      <c r="F79">
-        <v>0.8017456359102244</v>
-      </c>
-      <c r="G79">
-        <v>1.087231292063665</v>
-      </c>
       <c r="H79">
-        <v>0.9676791094107702</v>
+        <v>0.9682544500726478</v>
       </c>
       <c r="I79">
         <v>1.019259915409032</v>
@@ -3535,25 +3556,25 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.081834473973067</v>
+      </c>
+      <c r="C80">
+        <v>1.010195961647215</v>
+      </c>
+      <c r="D80">
         <v>1.076049721053147</v>
       </c>
-      <c r="C80">
+      <c r="E80">
+        <v>0.801278054862843</v>
+      </c>
+      <c r="F80">
+        <v>0.8811306469252125</v>
+      </c>
+      <c r="G80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="D80">
-        <v>1.010195961647215</v>
-      </c>
-      <c r="E80">
-        <v>0.8811306469252125</v>
-      </c>
-      <c r="F80">
-        <v>0.801278054862843</v>
-      </c>
-      <c r="G80">
-        <v>1.081834473973067</v>
-      </c>
       <c r="H80">
-        <v>0.9688294522402076</v>
+        <v>0.9692735740530578</v>
       </c>
       <c r="I80">
         <v>1.019603870515823</v>
@@ -3567,25 +3588,25 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.104373842484467</v>
+      </c>
+      <c r="C81">
+        <v>1.023828313191575</v>
+      </c>
+      <c r="D81">
         <v>1.073798571009102</v>
       </c>
-      <c r="C81">
+      <c r="E81">
+        <v>0.7742362842892769</v>
+      </c>
+      <c r="F81">
+        <v>0.8718768402456464</v>
+      </c>
+      <c r="G81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="D81">
-        <v>1.023828313191575</v>
-      </c>
-      <c r="E81">
-        <v>0.8718768402456464</v>
-      </c>
-      <c r="F81">
-        <v>0.7742362842892769</v>
-      </c>
-      <c r="G81">
-        <v>1.104373842484467</v>
-      </c>
       <c r="H81">
-        <v>0.9715502003103861</v>
+        <v>0.9721734792653064</v>
       </c>
       <c r="I81">
         <v>1.018626975189686</v>
@@ -3599,25 +3620,25 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.055915721552302</v>
+      </c>
+      <c r="C82">
+        <v>1.015476504253284</v>
+      </c>
+      <c r="D82">
         <v>1.10061661935989</v>
       </c>
-      <c r="C82">
+      <c r="E82">
+        <v>0.7846009975062345</v>
+      </c>
+      <c r="F82">
+        <v>0.8579961302262976</v>
+      </c>
+      <c r="G82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="D82">
-        <v>1.015476504253284</v>
-      </c>
-      <c r="E82">
-        <v>0.8579961302262976</v>
-      </c>
-      <c r="F82">
-        <v>0.7846009975062345</v>
-      </c>
-      <c r="G82">
-        <v>1.055915721552302</v>
-      </c>
       <c r="H82">
-        <v>0.965156471868637</v>
+        <v>0.9650179115369745</v>
       </c>
       <c r="I82">
         <v>1.01919866312974</v>
@@ -3631,25 +3652,25 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.02068747550485</v>
+      </c>
+      <c r="C83">
+        <v>0.9879733678169083</v>
+      </c>
+      <c r="D83">
         <v>1.129587941665851</v>
       </c>
-      <c r="C83">
+      <c r="E83">
+        <v>0.7733011221945137</v>
+      </c>
+      <c r="F83">
+        <v>0.8318330949777066</v>
+      </c>
+      <c r="G83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="D83">
-        <v>0.9879733678169083</v>
-      </c>
-      <c r="E83">
-        <v>0.8318330949777066</v>
-      </c>
-      <c r="F83">
-        <v>0.7733011221945137</v>
-      </c>
-      <c r="G83">
-        <v>1.02068747550485</v>
-      </c>
       <c r="H83">
-        <v>0.9487119002626443</v>
+        <v>0.947948311730457</v>
       </c>
       <c r="I83">
         <v>1.012145227583629</v>
@@ -3663,25 +3684,25 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.045176259819247</v>
+      </c>
+      <c r="C84">
+        <v>0.9855024306210293</v>
+      </c>
+      <c r="D84">
         <v>1.185181560144857</v>
       </c>
-      <c r="C84">
+      <c r="E84">
+        <v>0.7623129675810474</v>
+      </c>
+      <c r="F84">
+        <v>0.8200555228400773</v>
+      </c>
+      <c r="G84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="D84">
-        <v>0.9855024306210293</v>
-      </c>
-      <c r="E84">
-        <v>0.8200555228400773</v>
-      </c>
-      <c r="F84">
-        <v>0.7623129675810474</v>
-      </c>
-      <c r="G84">
-        <v>1.045176259819247</v>
-      </c>
       <c r="H84">
-        <v>0.9593422479476523</v>
+        <v>0.9581530928458424</v>
       </c>
       <c r="I84">
         <v>1.017100379921189</v>
@@ -3695,25 +3716,25 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.061027017740725</v>
+      </c>
+      <c r="C85">
+        <v>0.9754708124423276</v>
+      </c>
+      <c r="D85">
         <v>1.136341391797984</v>
       </c>
-      <c r="C85">
+      <c r="E85">
+        <v>0.7819513715710724</v>
+      </c>
+      <c r="F85">
+        <v>0.8210650290233027</v>
+      </c>
+      <c r="G85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="D85">
-        <v>0.9754708124423276</v>
-      </c>
-      <c r="E85">
-        <v>0.8210650290233027</v>
-      </c>
-      <c r="F85">
-        <v>0.7819513715710724</v>
-      </c>
-      <c r="G85">
-        <v>1.061027017740725</v>
-      </c>
       <c r="H85">
-        <v>0.9520923832126776</v>
+        <v>0.9516491296155467</v>
       </c>
       <c r="I85">
         <v>1.013967090249737</v>
@@ -3727,25 +3748,25 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.087965503797537</v>
+      </c>
+      <c r="C86">
+        <v>0.9719066646788531</v>
+      </c>
+      <c r="D86">
         <v>1.141920328863659</v>
       </c>
-      <c r="C86">
+      <c r="E86">
+        <v>0.7791458852867831</v>
+      </c>
+      <c r="F86">
+        <v>0.8262808109699671</v>
+      </c>
+      <c r="G86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="D86">
-        <v>0.9719066646788531</v>
-      </c>
-      <c r="E86">
-        <v>0.8262808109699671</v>
-      </c>
-      <c r="F86">
-        <v>0.7791458852867831</v>
-      </c>
-      <c r="G86">
-        <v>1.087965503797537</v>
-      </c>
       <c r="H86">
-        <v>0.9578191088955038</v>
+        <v>0.9575168291934657</v>
       </c>
       <c r="I86">
         <v>1.022763859898761</v>
@@ -3759,25 +3780,25 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.095360858006061</v>
+      </c>
+      <c r="C87">
+        <v>0.9534158271003422</v>
+      </c>
+      <c r="D87">
         <v>1.084662816873838</v>
       </c>
-      <c r="C87">
+      <c r="E87">
+        <v>0.7760286783042395</v>
+      </c>
+      <c r="F87">
+        <v>0.8245983006645915</v>
+      </c>
+      <c r="G87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="D87">
-        <v>0.9534158271003422</v>
-      </c>
-      <c r="E87">
-        <v>0.8245983006645915</v>
-      </c>
-      <c r="F87">
-        <v>0.7760286783042395</v>
-      </c>
-      <c r="G87">
-        <v>1.095360858006061</v>
-      </c>
       <c r="H87">
-        <v>0.9417384595092602</v>
+        <v>0.9421187202739986</v>
       </c>
       <c r="I87">
         <v>1.011295548529867</v>
@@ -3791,25 +3812,25 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.117933144306798</v>
+      </c>
+      <c r="C88">
+        <v>0.9784768404510082</v>
+      </c>
+      <c r="D88">
         <v>1.089850249584027</v>
       </c>
-      <c r="C88">
+      <c r="E88">
+        <v>0.8062655860349127</v>
+      </c>
+      <c r="F88">
+        <v>0.8393202658366282</v>
+      </c>
+      <c r="G88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="D88">
-        <v>0.9784768404510082</v>
-      </c>
-      <c r="E88">
-        <v>0.8393202658366282</v>
-      </c>
-      <c r="F88">
-        <v>0.8062655860349127</v>
-      </c>
-      <c r="G88">
-        <v>1.117933144306798</v>
-      </c>
       <c r="H88">
-        <v>0.9629302842275794</v>
+        <v>0.9634382022017358</v>
       </c>
       <c r="I88">
         <v>1.024923395386604</v>
@@ -3823,25 +3844,25 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.143025172381468</v>
+      </c>
+      <c r="C89">
+        <v>1.00820822255388</v>
+      </c>
+      <c r="D89">
         <v>1.121757854556132</v>
       </c>
-      <c r="C89">
+      <c r="E89">
+        <v>0.8110193266832918</v>
+      </c>
+      <c r="F89">
+        <v>0.8535374779170521</v>
+      </c>
+      <c r="G89">
         <v>1.002449332436846</v>
       </c>
-      <c r="D89">
-        <v>1.00820822255388</v>
-      </c>
-      <c r="E89">
-        <v>0.8535374779170521</v>
-      </c>
-      <c r="F89">
-        <v>0.8110193266832918</v>
-      </c>
-      <c r="G89">
-        <v>1.143025172381468</v>
-      </c>
       <c r="H89">
-        <v>0.9882872217605204</v>
+        <v>0.9885574838399441</v>
       </c>
       <c r="I89">
         <v>1.033143765381782</v>
@@ -3855,25 +3876,25 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.123221379106533</v>
+      </c>
+      <c r="C90">
+        <v>1.000863988796736</v>
+      </c>
+      <c r="D90">
         <v>1.136047763531369</v>
       </c>
-      <c r="C90">
+      <c r="E90">
+        <v>0.8293329177057358</v>
+      </c>
+      <c r="F90">
+        <v>0.8547993606460839</v>
+      </c>
+      <c r="G90">
         <v>1.003361828834886</v>
       </c>
-      <c r="D90">
-        <v>1.000863988796736</v>
-      </c>
-      <c r="E90">
-        <v>0.8547993606460839</v>
-      </c>
-      <c r="F90">
-        <v>0.8293329177057358</v>
-      </c>
-      <c r="G90">
-        <v>1.123221379106533</v>
-      </c>
       <c r="H90">
-        <v>0.9898557768865959</v>
+        <v>0.9897025346419661</v>
       </c>
       <c r="I90">
         <v>1.036514211314081</v>
@@ -3887,25 +3908,25 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.119504510945736</v>
+      </c>
+      <c r="C91">
+        <v>1.012187536828461</v>
+      </c>
+      <c r="D91">
         <v>1.142311833219144</v>
       </c>
-      <c r="C91">
+      <c r="E91">
+        <v>0.8308915211970076</v>
+      </c>
+      <c r="F91">
+        <v>0.8642214183561875</v>
+      </c>
+      <c r="G91">
         <v>1.040149841513784</v>
       </c>
-      <c r="D91">
-        <v>1.012187536828461</v>
-      </c>
-      <c r="E91">
-        <v>0.8642214183561875</v>
-      </c>
-      <c r="F91">
-        <v>0.8308915211970076</v>
-      </c>
-      <c r="G91">
-        <v>1.119504510945736</v>
-      </c>
       <c r="H91">
-        <v>1.000258412072513</v>
+        <v>0.9997507158029253</v>
       </c>
       <c r="I91">
         <v>1.034125372421711</v>
@@ -3919,25 +3940,25 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.122223341619133</v>
+      </c>
+      <c r="C92">
+        <v>1.012817151826885</v>
+      </c>
+      <c r="D92">
         <v>1.107957326025252</v>
       </c>
-      <c r="C92">
+      <c r="E92">
+        <v>0.8322942643391522</v>
+      </c>
+      <c r="F92">
+        <v>0.8706990830318835</v>
+      </c>
+      <c r="G92">
         <v>1.044616271251561</v>
       </c>
-      <c r="D92">
-        <v>1.012817151826885</v>
-      </c>
-      <c r="E92">
-        <v>0.8706990830318835</v>
-      </c>
-      <c r="F92">
-        <v>0.8322942643391522</v>
-      </c>
-      <c r="G92">
-        <v>1.122223341619133</v>
-      </c>
       <c r="H92">
-        <v>0.9970528595414971</v>
+        <v>0.9968775285031891</v>
       </c>
       <c r="I92">
         <v>1.028521574152166</v>
@@ -3951,25 +3972,25 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.101237774802562</v>
+      </c>
+      <c r="C93">
+        <v>1.004362736847858</v>
+      </c>
+      <c r="D93">
         <v>1.114221395713027</v>
       </c>
-      <c r="C93">
+      <c r="E93">
+        <v>0.8153054862842893</v>
+      </c>
+      <c r="F93">
+        <v>0.8605198956843609</v>
+      </c>
+      <c r="G93">
         <v>1.040437998271059</v>
       </c>
-      <c r="D93">
-        <v>1.004362736847858</v>
-      </c>
-      <c r="E93">
-        <v>0.8605198956843609</v>
-      </c>
-      <c r="F93">
-        <v>0.8153054862842893</v>
-      </c>
-      <c r="G93">
-        <v>1.101237774802562</v>
-      </c>
       <c r="H93">
-        <v>0.9880784937760325</v>
+        <v>0.9875879049526958</v>
       </c>
       <c r="I93">
         <v>1.025246933066964</v>
@@ -3983,25 +4004,25 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.093003068239749</v>
+      </c>
+      <c r="C94">
+        <v>1.010270560521841</v>
+      </c>
+      <c r="D94">
         <v>1.106195556425565</v>
       </c>
-      <c r="C94">
+      <c r="E94">
+        <v>0.8232543640897756</v>
+      </c>
+      <c r="F94">
+        <v>0.8762513670396231</v>
+      </c>
+      <c r="G94">
         <v>1.046825473057343</v>
       </c>
-      <c r="D94">
-        <v>1.010270560521841</v>
-      </c>
-      <c r="E94">
-        <v>0.8762513670396231</v>
-      </c>
-      <c r="F94">
-        <v>0.8232543640897756</v>
-      </c>
-      <c r="G94">
-        <v>1.093003068239749</v>
-      </c>
       <c r="H94">
-        <v>0.9914533299059467</v>
+        <v>0.9909558558987335</v>
       </c>
       <c r="I94">
         <v>1.027800681942043</v>
@@ -4015,25 +4036,25 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.124618854263747</v>
+      </c>
+      <c r="C95">
+        <v>1.027854939217063</v>
+      </c>
+      <c r="D95">
         <v>1.115493784868357</v>
       </c>
-      <c r="C95">
+      <c r="E95">
+        <v>0.8514650872817956</v>
+      </c>
+      <c r="F95">
+        <v>0.8977033734331622</v>
+      </c>
+      <c r="G95">
         <v>1.060320814523101</v>
       </c>
-      <c r="D95">
-        <v>1.027854939217063</v>
-      </c>
-      <c r="E95">
-        <v>0.8977033734331622</v>
-      </c>
-      <c r="F95">
-        <v>0.8514650872817956</v>
-      </c>
-      <c r="G95">
-        <v>1.124618854263747</v>
-      </c>
       <c r="H95">
-        <v>1.01164292717502</v>
+        <v>1.011409519115914</v>
       </c>
       <c r="I95">
         <v>1.0396663478407</v>
@@ -4047,25 +4068,25 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.120316483082725</v>
+      </c>
+      <c r="C96">
+        <v>1.019992001818778</v>
+      </c>
+      <c r="D96">
         <v>1.125477145933248</v>
       </c>
-      <c r="C96">
+      <c r="E96">
+        <v>0.8516209476309228</v>
+      </c>
+      <c r="F96">
+        <v>0.8869353074787583</v>
+      </c>
+      <c r="G96">
         <v>1.051195850542695</v>
       </c>
-      <c r="D96">
-        <v>1.019992001818778</v>
-      </c>
-      <c r="E96">
-        <v>0.8869353074787583</v>
-      </c>
-      <c r="F96">
-        <v>0.8516209476309228</v>
-      </c>
-      <c r="G96">
-        <v>1.120316483082725</v>
-      </c>
       <c r="H96">
-        <v>1.008038330353797</v>
+        <v>1.007674685238052</v>
       </c>
       <c r="I96">
         <v>1.041007615700059</v>
@@ -4079,25 +4100,25 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.121273530817313</v>
+      </c>
+      <c r="C97">
+        <v>1.027098174663985</v>
+      </c>
+      <c r="D97">
         <v>1.125672898110991</v>
       </c>
-      <c r="C97">
+      <c r="E97">
+        <v>0.8588684538653368</v>
+      </c>
+      <c r="F97">
+        <v>0.9103222007234795</v>
+      </c>
+      <c r="G97">
         <v>1.054605705503794</v>
       </c>
-      <c r="D97">
-        <v>1.027098174663985</v>
-      </c>
-      <c r="E97">
-        <v>0.9103222007234795</v>
-      </c>
-      <c r="F97">
-        <v>0.8588684538653368</v>
-      </c>
-      <c r="G97">
-        <v>1.121273530817313</v>
-      </c>
       <c r="H97">
-        <v>1.01514924677162</v>
+        <v>1.014830177790285</v>
       </c>
       <c r="I97">
         <v>1.049991283329486</v>
@@ -4111,25 +4132,25 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.096874065488938</v>
+      </c>
+      <c r="C98">
+        <v>1.045181443420068</v>
+      </c>
+      <c r="D98">
         <v>1.142996965841245</v>
       </c>
-      <c r="C98">
+      <c r="E98">
+        <v>0.8636221945137158</v>
+      </c>
+      <c r="F98">
+        <v>0.9077143097501471</v>
+      </c>
+      <c r="G98">
         <v>1.100230525405821</v>
       </c>
-      <c r="D98">
-        <v>1.045181443420068</v>
-      </c>
-      <c r="E98">
-        <v>0.9077143097501471</v>
-      </c>
-      <c r="F98">
-        <v>0.8636221945137158</v>
-      </c>
-      <c r="G98">
-        <v>1.096874065488938</v>
-      </c>
       <c r="H98">
-        <v>1.025204760662299</v>
+        <v>1.024193040838918</v>
       </c>
       <c r="I98">
         <v>1.047283618470546</v>
@@ -4143,25 +4164,25 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.117570447987966</v>
+      </c>
+      <c r="C99">
+        <v>1.077606578595302</v>
+      </c>
+      <c r="D99">
         <v>1.174415190368993</v>
       </c>
-      <c r="C99">
+      <c r="E99">
+        <v>0.8893391521197008</v>
+      </c>
+      <c r="F99">
+        <v>0.9178934970976697</v>
+      </c>
+      <c r="G99">
         <v>1.15565267505523</v>
       </c>
-      <c r="D99">
-        <v>1.077606578595302</v>
-      </c>
-      <c r="E99">
-        <v>0.9178934970976697</v>
-      </c>
-      <c r="F99">
-        <v>0.8893391521197008</v>
-      </c>
-      <c r="G99">
-        <v>1.117570447987966</v>
-      </c>
       <c r="H99">
-        <v>1.054569411742394</v>
+        <v>1.053220503353984</v>
       </c>
       <c r="I99">
         <v>1.0568358328975</v>
@@ -4175,25 +4196,25 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.136906638718238</v>
+      </c>
+      <c r="C100">
+        <v>1.070294895720047</v>
+      </c>
+      <c r="D100">
         <v>1.176079083879808</v>
       </c>
-      <c r="C100">
+      <c r="E100">
+        <v>0.883806109725686</v>
+      </c>
+      <c r="F100">
+        <v>0.9247917893497096</v>
+      </c>
+      <c r="G100">
         <v>1.144894822783594</v>
       </c>
-      <c r="D100">
-        <v>1.070294895720047</v>
-      </c>
-      <c r="E100">
-        <v>0.9247917893497096</v>
-      </c>
-      <c r="F100">
-        <v>0.883806109725686</v>
-      </c>
-      <c r="G100">
-        <v>1.136906638718238</v>
-      </c>
       <c r="H100">
-        <v>1.055179452485721</v>
+        <v>1.05404172876347</v>
       </c>
       <c r="I100">
         <v>1.058527338148705</v>
@@ -4207,25 +4228,25 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.118010611716685</v>
+      </c>
+      <c r="C101">
+        <v>1.061065243376252</v>
+      </c>
+      <c r="D101">
         <v>1.15914652050504</v>
       </c>
-      <c r="C101">
+      <c r="E101">
+        <v>0.8630766832917706</v>
+      </c>
+      <c r="F101">
+        <v>0.9076301842348783</v>
+      </c>
+      <c r="G101">
         <v>1.139131687638075</v>
       </c>
-      <c r="D101">
-        <v>1.061065243376252</v>
-      </c>
-      <c r="E101">
-        <v>0.9076301842348783</v>
-      </c>
-      <c r="F101">
-        <v>0.8630766832917706</v>
-      </c>
-      <c r="G101">
-        <v>1.118010611716685</v>
-      </c>
       <c r="H101">
-        <v>1.04037959967873</v>
+        <v>1.039187576148228</v>
       </c>
       <c r="I101">
         <v>1.049366195966459</v>
@@ -4239,25 +4260,25 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.094844618585296</v>
+      </c>
+      <c r="C102">
+        <v>1.038995236460245</v>
+      </c>
+      <c r="D102">
         <v>1.159440148771655</v>
       </c>
-      <c r="C102">
+      <c r="E102">
+        <v>0.8511533665835412</v>
+      </c>
+      <c r="F102">
+        <v>0.913098342727349</v>
+      </c>
+      <c r="G102">
         <v>1.133560656997407</v>
       </c>
-      <c r="D102">
-        <v>1.038995236460245</v>
-      </c>
-      <c r="E102">
-        <v>0.913098342727349</v>
-      </c>
-      <c r="F102">
-        <v>0.8511533665835412</v>
-      </c>
-      <c r="G102">
-        <v>1.094844618585296</v>
-      </c>
       <c r="H102">
-        <v>1.031147304370879</v>
+        <v>1.029555694863643</v>
       </c>
       <c r="I102">
         <v>1.047214513334935</v>
@@ -4271,25 +4292,25 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.106112581505772</v>
+      </c>
+      <c r="C103">
+        <v>1.049185810204051</v>
+      </c>
+      <c r="D103">
         <v>1.15581873348341</v>
       </c>
-      <c r="C103">
+      <c r="E103">
+        <v>0.8606608478802994</v>
+      </c>
+      <c r="F103">
+        <v>0.9188188777656263</v>
+      </c>
+      <c r="G103">
         <v>1.162376332725003</v>
       </c>
-      <c r="D103">
-        <v>1.049185810204051</v>
-      </c>
-      <c r="E103">
-        <v>0.9188188777656263</v>
-      </c>
-      <c r="F103">
-        <v>0.8606608478802994</v>
-      </c>
-      <c r="G103">
-        <v>1.106112581505772</v>
-      </c>
       <c r="H103">
-        <v>1.041452457288809</v>
+        <v>1.039823490543823</v>
       </c>
       <c r="I103">
         <v>1.051192770346358</v>
@@ -4303,25 +4324,25 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.112879523835607</v>
+      </c>
+      <c r="C104">
+        <v>1.027612260102204</v>
+      </c>
+      <c r="D104">
         <v>1.150533424684349</v>
       </c>
-      <c r="C104">
+      <c r="E104">
+        <v>0.8759351620947633</v>
+      </c>
+      <c r="F104">
+        <v>0.9332884663918566</v>
+      </c>
+      <c r="G104">
         <v>1.137114590337144</v>
       </c>
-      <c r="D104">
-        <v>1.027612260102204</v>
-      </c>
-      <c r="E104">
-        <v>0.9332884663918566</v>
-      </c>
-      <c r="F104">
-        <v>0.8759351620947633</v>
-      </c>
-      <c r="G104">
-        <v>1.112879523835607</v>
-      </c>
       <c r="H104">
-        <v>1.038946864826429</v>
+        <v>1.037475302515592</v>
       </c>
       <c r="I104">
         <v>1.055659475020849</v>
@@ -4335,25 +4356,25 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.100170678810963</v>
+      </c>
+      <c r="C105">
+        <v>1.02929647649863</v>
+      </c>
+      <c r="D105">
         <v>1.124009004600176</v>
       </c>
-      <c r="C105">
+      <c r="E105">
+        <v>0.8875467581047383</v>
+      </c>
+      <c r="F105">
+        <v>0.9299234457811053</v>
+      </c>
+      <c r="G105">
         <v>1.128710018249928</v>
       </c>
-      <c r="D105">
-        <v>1.02929647649863</v>
-      </c>
-      <c r="E105">
-        <v>0.9299234457811053</v>
-      </c>
-      <c r="F105">
-        <v>0.8875467581047383</v>
-      </c>
-      <c r="G105">
-        <v>1.100170678810963</v>
-      </c>
       <c r="H105">
-        <v>1.032646913394646</v>
+        <v>1.031414394719241</v>
       </c>
       <c r="I105">
         <v>1.049857784772055</v>
@@ -4367,25 +4388,25 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.09399397134201</v>
+      </c>
+      <c r="C106">
+        <v>1.03198327743756</v>
+      </c>
+      <c r="D106">
         <v>1.12753254379955</v>
       </c>
-      <c r="C106">
+      <c r="E106">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="F106">
+        <v>0.9330360898460502</v>
+      </c>
+      <c r="G106">
         <v>1.127413312842186</v>
       </c>
-      <c r="D106">
-        <v>1.03198327743756</v>
-      </c>
-      <c r="E106">
-        <v>0.9330360898460502</v>
-      </c>
-      <c r="F106">
-        <v>0.8935473815461348</v>
-      </c>
-      <c r="G106">
-        <v>1.09399397134201</v>
-      </c>
       <c r="H106">
-        <v>1.034016345570498</v>
+        <v>1.032726659491876</v>
       </c>
       <c r="I106">
         <v>1.051167641206136</v>
@@ -4399,25 +4420,25 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.109314616613305</v>
+      </c>
+      <c r="C107">
+        <v>1.06555237375444</v>
+      </c>
+      <c r="D107">
         <v>1.132719976509739</v>
       </c>
-      <c r="C107">
+      <c r="E107">
+        <v>0.8955735660847881</v>
+      </c>
+      <c r="F107">
+        <v>0.9399343820980902</v>
+      </c>
+      <c r="G107">
         <v>1.169964460666603</v>
       </c>
-      <c r="D107">
-        <v>1.06555237375444</v>
-      </c>
-      <c r="E107">
-        <v>0.9399343820980902</v>
-      </c>
-      <c r="F107">
-        <v>0.8955735660847881</v>
-      </c>
-      <c r="G107">
-        <v>1.109314616613305</v>
-      </c>
       <c r="H107">
-        <v>1.051471423969907</v>
+        <v>1.050193249501821</v>
       </c>
       <c r="I107">
         <v>1.062591976579641</v>
@@ -4431,25 +4452,25 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.102577486344575</v>
+      </c>
+      <c r="C108">
+        <v>1.081025017090765</v>
+      </c>
+      <c r="D108">
         <v>1.133600861309582</v>
       </c>
-      <c r="C108">
+      <c r="E108">
+        <v>0.8650249376558605</v>
+      </c>
+      <c r="F108">
+        <v>0.9272314292925043</v>
+      </c>
+      <c r="G108">
         <v>1.182163096724618</v>
       </c>
-      <c r="D108">
-        <v>1.081025017090765</v>
-      </c>
-      <c r="E108">
-        <v>0.9272314292925043</v>
-      </c>
-      <c r="F108">
-        <v>0.8650249376558605</v>
-      </c>
-      <c r="G108">
-        <v>1.102577486344575</v>
-      </c>
       <c r="H108">
-        <v>1.04773985579669</v>
+        <v>1.046418241250702</v>
       </c>
       <c r="I108">
         <v>1.056353667519487</v>
@@ -4463,25 +4484,25 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.080131333629149</v>
+      </c>
+      <c r="C109">
+        <v>1.066108730646828</v>
+      </c>
+      <c r="D109">
         <v>1.096701575805031</v>
       </c>
-      <c r="C109">
+      <c r="E109">
+        <v>0.8675966334164589</v>
+      </c>
+      <c r="F109">
+        <v>0.9325313367544376</v>
+      </c>
+      <c r="G109">
         <v>1.177408510229565</v>
       </c>
-      <c r="D109">
-        <v>1.066108730646828</v>
-      </c>
-      <c r="E109">
-        <v>0.9325313367544376</v>
-      </c>
-      <c r="F109">
-        <v>0.8675966334164589</v>
-      </c>
-      <c r="G109">
-        <v>1.080131333629149</v>
-      </c>
       <c r="H109">
-        <v>1.03601887983909</v>
+        <v>1.034740179621504</v>
       </c>
       <c r="I109">
         <v>1.046575290830534</v>
@@ -4495,25 +4516,25 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.044995072806107</v>
+      </c>
+      <c r="C110">
+        <v>1.021693263356634</v>
+      </c>
+      <c r="D110">
         <v>1.050308309679945</v>
       </c>
-      <c r="C110">
+      <c r="E110">
+        <v>0.8565305486284289</v>
+      </c>
+      <c r="F110">
+        <v>0.9085555649028351</v>
+      </c>
+      <c r="G110">
         <v>1.10147920468735</v>
       </c>
-      <c r="D110">
-        <v>1.021693263356634</v>
-      </c>
-      <c r="E110">
-        <v>0.9085555649028351</v>
-      </c>
-      <c r="F110">
-        <v>0.8565305486284289</v>
-      </c>
-      <c r="G110">
-        <v>1.044995072806107</v>
-      </c>
       <c r="H110">
-        <v>0.9965386505287936</v>
+        <v>0.9956876587467482</v>
       </c>
       <c r="I110">
         <v>1.031282638434078</v>
@@ -4527,25 +4548,25 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.049654397638662</v>
+      </c>
+      <c r="C111">
+        <v>1.039040226695167</v>
+      </c>
+      <c r="D111">
         <v>1.054810609768034</v>
       </c>
-      <c r="C111">
+      <c r="E111">
+        <v>0.8651028678304241</v>
+      </c>
+      <c r="F111">
+        <v>0.943131151678304</v>
+      </c>
+      <c r="G111">
         <v>1.133128421861493</v>
       </c>
-      <c r="D111">
-        <v>1.039040226695167</v>
-      </c>
-      <c r="E111">
-        <v>0.943131151678304</v>
-      </c>
-      <c r="F111">
-        <v>0.8651028678304241</v>
-      </c>
-      <c r="G111">
-        <v>1.049654397638662</v>
-      </c>
       <c r="H111">
-        <v>1.013540558586916</v>
+        <v>1.012548114513959</v>
       </c>
       <c r="I111">
         <v>1.03911664789834</v>
@@ -4559,25 +4580,25 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.05939872251729</v>
+      </c>
+      <c r="C112">
+        <v>1.06684170897195</v>
+      </c>
+      <c r="D112">
         <v>1.073504942742488</v>
       </c>
-      <c r="C112">
+      <c r="E112">
+        <v>0.8840399002493767</v>
+      </c>
+      <c r="F112">
+        <v>0.9551611003617396</v>
+      </c>
+      <c r="G112">
         <v>1.187926231870138</v>
       </c>
-      <c r="D112">
-        <v>1.06684170897195</v>
-      </c>
-      <c r="E112">
-        <v>0.9551611003617396</v>
-      </c>
-      <c r="F112">
-        <v>0.8840399002493767</v>
-      </c>
-      <c r="G112">
-        <v>1.05939872251729</v>
-      </c>
       <c r="H112">
-        <v>1.037305938826315</v>
+        <v>1.035954031395081</v>
       </c>
       <c r="I112">
         <v>1.045648653784841</v>
@@ -4591,25 +4612,25 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.068566158376641</v>
+      </c>
+      <c r="C113">
+        <v>1.081004197934042</v>
+      </c>
+      <c r="D113">
         <v>1.068121757854556</v>
       </c>
-      <c r="C113">
+      <c r="E113">
+        <v>0.9191084788029926</v>
+      </c>
+      <c r="F113">
+        <v>0.9678640531673256</v>
+      </c>
+      <c r="G113">
         <v>1.192968975122467</v>
       </c>
-      <c r="D113">
-        <v>1.081004197934042</v>
-      </c>
-      <c r="E113">
-        <v>0.9678640531673256</v>
-      </c>
-      <c r="F113">
-        <v>0.9191084788029926</v>
-      </c>
-      <c r="G113">
-        <v>1.068566158376641</v>
-      </c>
       <c r="H113">
-        <v>1.049102012050757</v>
+        <v>1.047986808284094</v>
       </c>
       <c r="I113">
         <v>1.053410416970965</v>
@@ -4623,25 +4644,25 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.08644059123514</v>
+      </c>
+      <c r="C114">
+        <v>1.085273316856529</v>
+      </c>
+      <c r="D114">
         <v>1.073896447097974</v>
       </c>
-      <c r="C114">
+      <c r="E114">
+        <v>0.912562344139651</v>
+      </c>
+      <c r="F114">
+        <v>0.9639101539496928</v>
+      </c>
+      <c r="G114">
         <v>1.193593314763231</v>
       </c>
-      <c r="D114">
-        <v>1.085273316856529</v>
-      </c>
-      <c r="E114">
-        <v>0.9639101539496928</v>
-      </c>
-      <c r="F114">
-        <v>0.912562344139651</v>
-      </c>
-      <c r="G114">
-        <v>1.08644059123514</v>
-      </c>
       <c r="H114">
-        <v>1.05194780948626</v>
+        <v>1.050990050948565</v>
       </c>
       <c r="I114">
         <v>1.058532049862497</v>
@@ -4655,25 +4676,25 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.088359330647005</v>
+      </c>
+      <c r="C115">
+        <v>1.100747512008352</v>
+      </c>
+      <c r="D115">
         <v>1.092003523539199</v>
       </c>
-      <c r="C115">
+      <c r="E115">
+        <v>0.9116271820448878</v>
+      </c>
+      <c r="F115">
+        <v>0.9904096912593588</v>
+      </c>
+      <c r="G115">
         <v>1.227211603112093</v>
       </c>
-      <c r="D115">
-        <v>1.100747512008352</v>
-      </c>
-      <c r="E115">
-        <v>0.9904096912593588</v>
-      </c>
-      <c r="F115">
-        <v>0.9116271820448878</v>
-      </c>
-      <c r="G115">
-        <v>1.088359330647005</v>
-      </c>
       <c r="H115">
-        <v>1.067869934817299</v>
+        <v>1.06656885197734</v>
       </c>
       <c r="I115">
         <v>1.066410035322148</v>
@@ -4687,25 +4708,25 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.070154767667137</v>
+      </c>
+      <c r="C116">
+        <v>1.113809018910833</v>
+      </c>
+      <c r="D116">
         <v>1.084956445140452</v>
       </c>
-      <c r="C116">
+      <c r="E116">
+        <v>0.8972880299251871</v>
+      </c>
+      <c r="F116">
+        <v>0.9897366871372087</v>
+      </c>
+      <c r="G116">
         <v>1.212563634617232</v>
       </c>
-      <c r="D116">
-        <v>1.113809018910833</v>
-      </c>
-      <c r="E116">
-        <v>0.9897366871372087</v>
-      </c>
-      <c r="F116">
-        <v>0.8972880299251871</v>
-      </c>
-      <c r="G116">
-        <v>1.070154767667137</v>
-      </c>
       <c r="H116">
-        <v>1.060806821311889</v>
+        <v>1.059671258380092</v>
       </c>
       <c r="I116">
         <v>1.060900471328436</v>
@@ -4719,25 +4740,25 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.089034108704268</v>
+      </c>
+      <c r="C117">
+        <v>1.131908687253101</v>
+      </c>
+      <c r="D117">
         <v>1.113829891357541</v>
       </c>
-      <c r="C117">
+      <c r="E117">
+        <v>0.8997817955112221</v>
+      </c>
+      <c r="F117">
+        <v>0.9920922015647345</v>
+      </c>
+      <c r="G117">
         <v>1.235616175199308</v>
       </c>
-      <c r="D117">
-        <v>1.131908687253101</v>
-      </c>
-      <c r="E117">
-        <v>0.9920922015647345</v>
-      </c>
-      <c r="F117">
-        <v>0.8997817955112221</v>
-      </c>
-      <c r="G117">
-        <v>1.089034108704268</v>
-      </c>
       <c r="H117">
-        <v>1.076375258170756</v>
+        <v>1.075090225464761</v>
       </c>
       <c r="I117">
         <v>1.070094595507224</v>
@@ -4751,31 +4772,319 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.113829891357541</v>
+        <v>1.112480540305299</v>
       </c>
       <c r="C118">
-        <v>1.235616175199308</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="D118">
-        <v>1.146698047603815</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="E118">
-        <v>0.9920922015647345</v>
+        <v>0.9050031172069826</v>
       </c>
       <c r="F118">
-        <v>0.8997817955112221</v>
+        <v>1.010683940439135</v>
       </c>
       <c r="G118">
-        <v>1.112480496356314</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="H118">
-        <v>1.082492977851198</v>
+        <v>1.0892069980789</v>
       </c>
       <c r="I118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="J118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.100696909300855</v>
+      </c>
+      <c r="C119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="D119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="E119">
+        <v>0.8849750623441397</v>
+      </c>
+      <c r="F119">
+        <v>0.9960461007823672</v>
+      </c>
+      <c r="G119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="H119">
+        <v>1.08156062387865</v>
+      </c>
+      <c r="I119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="J119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.09942673970187</v>
+      </c>
+      <c r="C120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="D120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="E120">
+        <v>0.8979114713216958</v>
+      </c>
+      <c r="F120">
+        <v>1.016488600992681</v>
+      </c>
+      <c r="G120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="H120">
+        <v>1.099468786401795</v>
+      </c>
+      <c r="I120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="J120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.123290847801254</v>
+      </c>
+      <c r="C121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="D121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="E121">
+        <v>0.859569825436409</v>
+      </c>
+      <c r="F121">
+        <v>1.001934886851182</v>
+      </c>
+      <c r="G121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="H121">
+        <v>1.084649093318567</v>
+      </c>
+      <c r="I121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="J121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.069605932749586</v>
+      </c>
+      <c r="C122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="D122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="E122">
+        <v>0.8307356608478804</v>
+      </c>
+      <c r="F122">
+        <v>0.9756036005720534</v>
+      </c>
+      <c r="G122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="H122">
+        <v>1.063767825054662</v>
+      </c>
+      <c r="I122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="J122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.05748509583728</v>
+      </c>
+      <c r="C123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="D123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="E123">
+        <v>0.8346321695760599</v>
+      </c>
+      <c r="F123">
+        <v>0.997644485572474</v>
+      </c>
+      <c r="G123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="H123">
+        <v>1.081032964730567</v>
+      </c>
+      <c r="I123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="J123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.020819439655429</v>
+      </c>
+      <c r="C124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="D124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="E124">
+        <v>0.8402431421446385</v>
+      </c>
+      <c r="F124">
+        <v>0.9886430554387146</v>
+      </c>
+      <c r="G124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="H124">
+        <v>1.074644389145892</v>
+      </c>
+      <c r="I124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="J124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.052525130651907</v>
+      </c>
+      <c r="C125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="D125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="E125">
+        <v>0.8637001246882794</v>
+      </c>
+      <c r="F125">
+        <v>0.9970556069655926</v>
+      </c>
+      <c r="G125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="H125">
+        <v>1.112168403167605</v>
+      </c>
+      <c r="I125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="J125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.036187901421783</v>
+      </c>
+      <c r="C126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="D126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="E126">
+        <v>0.8980673316708231</v>
+      </c>
+      <c r="F126">
+        <v>1.010768065954404</v>
+      </c>
+      <c r="G126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="H126">
+        <v>1.124626272980282</v>
+      </c>
+      <c r="I126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="J126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.037749189093626</v>
+      </c>
+      <c r="C127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="D127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="E127">
+        <v>0.8907418952618454</v>
+      </c>
+      <c r="F127">
+        <v>0.9957095987212921</v>
+      </c>
+      <c r="G127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="H127">
+        <v>1.136391509918465</v>
+      </c>
+      <c r="I127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="J127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4887,18 +5196,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -4930,19 +5239,16 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -4960,30 +5266,27 @@
         <v>76</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>10.78719997406006</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>59.80680084228516</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>49.5421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -5001,30 +5304,27 @@
         <v>77</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J3">
-        <v>133.48</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K3">
-        <v>9.199999999999999</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L3">
-        <v>4.83</v>
-      </c>
-      <c r="M3">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -5042,27 +5342,24 @@
         <v>78</v>
       </c>
       <c r="I4">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>36.67</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K4">
-        <v>4.21</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L4">
-        <v>14.81</v>
-      </c>
-      <c r="M4">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -5086,24 +5383,21 @@
         <v>0.17</v>
       </c>
       <c r="J5">
-        <v>36.49</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K5">
-        <v>4.69</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L5">
-        <v>12.7</v>
-      </c>
-      <c r="M5">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -5127,24 +5421,21 @@
         <v>0.17</v>
       </c>
       <c r="J6">
-        <v>67.98</v>
+        <v>4.694399833679199</v>
       </c>
       <c r="K6">
-        <v>3.81</v>
+        <v>36.40560150146484</v>
       </c>
       <c r="L6">
-        <v>1.45</v>
-      </c>
-      <c r="M6">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6.4975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
@@ -5165,19 +5456,16 @@
         <v>81</v>
       </c>
       <c r="I7">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J7">
-        <v>63.98</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K7">
-        <v>11.5</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L7">
-        <v>25.06</v>
-      </c>
-      <c r="M7">
-        <v>49.54</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -5221,13 +5509,13 @@
         <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5241,13 +5529,13 @@
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5261,13 +5549,13 @@
         <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5281,13 +5569,13 @@
         <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5301,13 +5589,13 @@
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5321,13 +5609,13 @@
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5341,13 +5629,13 @@
         <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5358,16 +5646,16 @@
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5378,16 +5666,16 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5398,16 +5686,16 @@
         <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5418,16 +5706,16 @@
         <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5438,16 +5726,16 @@
         <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5458,16 +5746,16 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5478,16 +5766,16 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5498,16 +5786,16 @@
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5518,16 +5806,16 @@
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5538,16 +5826,16 @@
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5558,16 +5846,16 @@
         <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5578,16 +5866,16 @@
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5598,16 +5886,16 @@
         <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5617,7 +5905,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5625,120 +5913,142 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
